--- a/Statystyki_2018/Template/oktp_.xlsx
+++ b/Statystyki_2018/Template/oktp_.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D65FFE-6DE9-49D3-9BEB-D54553394E24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59854C1B-D5AC-4C73-A00E-F16808BE11E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Informacja o ruchu spraw w Wydziałach Pracy i Ubezpieczeń Społecznych </t>
   </si>
@@ -74,13 +74,19 @@
     <t>Kordyka Krystian</t>
   </si>
   <si>
-    <t/>
+    <t>aaa</t>
   </si>
   <si>
-    <t>Kowalewska Ula</t>
+    <t>Kowalewska-KowalewskaKowalewska Ula</t>
+  </si>
+  <si>
+    <t>bbb</t>
   </si>
   <si>
     <t>Kowalewska Ala</t>
+  </si>
+  <si>
+    <t>ccc</t>
   </si>
   <si>
     <t>0</t>
@@ -174,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -212,30 +218,107 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,38 +633,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="9" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="9" width="4.28515625" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" customWidth="1"/>
     <col min="11" max="15" width="4.28515625" customWidth="1"/>
     <col min="16" max="16" bestFit="1" width="6.28515625" customWidth="1"/>
-    <col min="17" max="17" bestFit="1" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" customWidth="1"/>
     <col min="18" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
@@ -612,7 +695,7 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -638,501 +721,7135 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="31.5" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="5"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="10">
         <v>0</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="10">
         <v>0</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="10">
         <v>0</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="10">
         <v>0</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="10">
         <v>0</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="10">
         <v>0</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>0</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="10">
         <v>0</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="10">
         <v>0</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="10">
         <v>0</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="10">
         <v>0</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="10">
         <v>0</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="10">
         <v>0</v>
       </c>
-      <c r="Q6" s="7" t="s">
-        <v>15</v>
+      <c r="Q6" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8">
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9">
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="10">
         <v>0</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="10">
         <v>0</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="10">
         <v>0</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="10">
         <v>0</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="10">
         <v>0</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="10">
         <v>0</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="10">
         <v>0</v>
       </c>
-      <c r="Q7" s="7" t="s">
-        <v>15</v>
+      <c r="Q7" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>18</v>
+      <c r="C8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="E9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
     </row>
     <row r="14">
-      <c r="C14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="13"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
     </row>
     <row r="15">
-      <c r="C15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
     </row>
     <row r="16">
-      <c r="C16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17">
-      <c r="C17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39">
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42">
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+    </row>
+    <row r="49">
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+    </row>
+    <row r="54">
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+    </row>
+    <row r="55">
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+    </row>
+    <row r="58">
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62">
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+    </row>
+    <row r="64">
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65">
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+    </row>
+    <row r="66">
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+    </row>
+    <row r="67">
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+    </row>
+    <row r="68">
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69">
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70">
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71">
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72">
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73">
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+    </row>
+    <row r="74">
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75">
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+    </row>
+    <row r="76">
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+    </row>
+    <row r="77">
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78">
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+    </row>
+    <row r="79">
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+    </row>
+    <row r="81">
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82">
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83">
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84">
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85">
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86">
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87">
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88">
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89">
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90">
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91">
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92">
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93">
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94">
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95">
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96">
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97">
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98">
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99">
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+    </row>
+    <row r="100">
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+    </row>
+    <row r="101">
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+    </row>
+    <row r="102">
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+    </row>
+    <row r="103">
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+    </row>
+    <row r="104">
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+    </row>
+    <row r="105">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106">
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6"/>
+    </row>
+    <row r="107">
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="108">
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+      <c r="O108" s="6"/>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6"/>
+    </row>
+    <row r="109">
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110">
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111">
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="112">
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+    </row>
+    <row r="113">
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+    </row>
+    <row r="114">
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+    </row>
+    <row r="115">
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116">
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+    </row>
+    <row r="117">
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+      <c r="L117" s="6"/>
+      <c r="M117" s="6"/>
+      <c r="N117" s="6"/>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+    </row>
+    <row r="118">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+    </row>
+    <row r="119">
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+    </row>
+    <row r="120">
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+    </row>
+    <row r="121">
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+    </row>
+    <row r="122">
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+      <c r="P122" s="6"/>
+      <c r="Q122" s="6"/>
+    </row>
+    <row r="123">
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
+      <c r="P123" s="6"/>
+      <c r="Q123" s="6"/>
+    </row>
+    <row r="124">
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+      <c r="N124" s="6"/>
+      <c r="O124" s="6"/>
+      <c r="P124" s="6"/>
+      <c r="Q124" s="6"/>
+    </row>
+    <row r="125">
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+    </row>
+    <row r="126">
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="6"/>
+    </row>
+    <row r="127">
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="6"/>
+    </row>
+    <row r="128">
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+      <c r="L128" s="6"/>
+      <c r="M128" s="6"/>
+      <c r="N128" s="6"/>
+      <c r="O128" s="6"/>
+      <c r="P128" s="6"/>
+      <c r="Q128" s="6"/>
+    </row>
+    <row r="129">
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6"/>
+      <c r="N129" s="6"/>
+      <c r="O129" s="6"/>
+      <c r="P129" s="6"/>
+      <c r="Q129" s="6"/>
+    </row>
+    <row r="130">
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6"/>
+      <c r="N130" s="6"/>
+      <c r="O130" s="6"/>
+      <c r="P130" s="6"/>
+      <c r="Q130" s="6"/>
+    </row>
+    <row r="131">
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6"/>
+      <c r="N131" s="6"/>
+      <c r="O131" s="6"/>
+      <c r="P131" s="6"/>
+      <c r="Q131" s="6"/>
+    </row>
+    <row r="132">
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6"/>
+      <c r="N132" s="6"/>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6"/>
+      <c r="Q132" s="6"/>
+    </row>
+    <row r="133">
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="6"/>
+    </row>
+    <row r="134">
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="6"/>
+    </row>
+    <row r="135">
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="6"/>
+    </row>
+    <row r="136">
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="6"/>
+    </row>
+    <row r="137">
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6"/>
+      <c r="N137" s="6"/>
+      <c r="O137" s="6"/>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+    </row>
+    <row r="138">
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6"/>
+      <c r="N138" s="6"/>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6"/>
+      <c r="Q138" s="6"/>
+    </row>
+    <row r="139">
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6"/>
+      <c r="N139" s="6"/>
+      <c r="O139" s="6"/>
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+    </row>
+    <row r="140">
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6"/>
+      <c r="N140" s="6"/>
+      <c r="O140" s="6"/>
+      <c r="P140" s="6"/>
+      <c r="Q140" s="6"/>
+    </row>
+    <row r="141">
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="6"/>
+    </row>
+    <row r="142">
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="6"/>
+    </row>
+    <row r="143">
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+    </row>
+    <row r="144">
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+      <c r="O144" s="6"/>
+      <c r="P144" s="6"/>
+      <c r="Q144" s="6"/>
+    </row>
+    <row r="145">
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6"/>
+      <c r="N145" s="6"/>
+      <c r="O145" s="6"/>
+      <c r="P145" s="6"/>
+      <c r="Q145" s="6"/>
+    </row>
+    <row r="146">
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+      <c r="O146" s="6"/>
+      <c r="P146" s="6"/>
+      <c r="Q146" s="6"/>
+    </row>
+    <row r="147">
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+      <c r="O147" s="6"/>
+      <c r="P147" s="6"/>
+      <c r="Q147" s="6"/>
+    </row>
+    <row r="148">
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+      <c r="O148" s="6"/>
+      <c r="P148" s="6"/>
+      <c r="Q148" s="6"/>
+    </row>
+    <row r="149">
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+      <c r="O149" s="6"/>
+      <c r="P149" s="6"/>
+      <c r="Q149" s="6"/>
+    </row>
+    <row r="150">
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+    </row>
+    <row r="151">
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+    </row>
+    <row r="152">
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="6"/>
+    </row>
+    <row r="153">
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="6"/>
+    </row>
+    <row r="154">
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="6"/>
+    </row>
+    <row r="155">
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="6"/>
+    </row>
+    <row r="156">
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+      <c r="O156" s="6"/>
+      <c r="P156" s="6"/>
+      <c r="Q156" s="6"/>
+    </row>
+    <row r="157">
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6"/>
+      <c r="N157" s="6"/>
+      <c r="O157" s="6"/>
+      <c r="P157" s="6"/>
+      <c r="Q157" s="6"/>
+    </row>
+    <row r="158">
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+    </row>
+    <row r="159">
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="6"/>
+    </row>
+    <row r="160">
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="6"/>
+    </row>
+    <row r="161">
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="6"/>
+    </row>
+    <row r="162">
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="6"/>
+    </row>
+    <row r="163">
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="6"/>
+      <c r="M163" s="6"/>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6"/>
+      <c r="Q163" s="6"/>
+    </row>
+    <row r="164">
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="6"/>
+      <c r="M164" s="6"/>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6"/>
+      <c r="Q164" s="6"/>
+    </row>
+    <row r="165">
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="6"/>
+      <c r="M165" s="6"/>
+      <c r="N165" s="6"/>
+      <c r="O165" s="6"/>
+      <c r="P165" s="6"/>
+      <c r="Q165" s="6"/>
+    </row>
+    <row r="166">
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="6"/>
+      <c r="M166" s="6"/>
+      <c r="N166" s="6"/>
+      <c r="O166" s="6"/>
+      <c r="P166" s="6"/>
+      <c r="Q166" s="6"/>
+    </row>
+    <row r="167">
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6"/>
+      <c r="N167" s="6"/>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6"/>
+      <c r="Q167" s="6"/>
+    </row>
+    <row r="168">
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="6"/>
+    </row>
+    <row r="169">
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="6"/>
+    </row>
+    <row r="170">
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="6"/>
+    </row>
+    <row r="171">
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
+      <c r="Q171" s="6"/>
+    </row>
+    <row r="172">
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="6"/>
+      <c r="L172" s="6"/>
+      <c r="M172" s="6"/>
+      <c r="N172" s="6"/>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6"/>
+      <c r="Q172" s="6"/>
+    </row>
+    <row r="173">
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6"/>
+      <c r="N173" s="6"/>
+      <c r="O173" s="6"/>
+      <c r="P173" s="6"/>
+      <c r="Q173" s="6"/>
+    </row>
+    <row r="174">
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6"/>
+      <c r="N174" s="6"/>
+      <c r="O174" s="6"/>
+      <c r="P174" s="6"/>
+      <c r="Q174" s="6"/>
+    </row>
+    <row r="175">
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6"/>
+      <c r="N175" s="6"/>
+      <c r="O175" s="6"/>
+      <c r="P175" s="6"/>
+      <c r="Q175" s="6"/>
+    </row>
+    <row r="176">
+      <c r="E176" s="6"/>
+      <c r="F176" s="6"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6"/>
+      <c r="N176" s="6"/>
+      <c r="O176" s="6"/>
+      <c r="P176" s="6"/>
+      <c r="Q176" s="6"/>
+    </row>
+    <row r="177">
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6"/>
+      <c r="N177" s="6"/>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6"/>
+      <c r="Q177" s="6"/>
+    </row>
+    <row r="178">
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
+      <c r="Q178" s="6"/>
+    </row>
+    <row r="179">
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6"/>
+      <c r="N179" s="6"/>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6"/>
+      <c r="Q179" s="6"/>
+    </row>
+    <row r="180">
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6"/>
+      <c r="N180" s="6"/>
+      <c r="O180" s="6"/>
+      <c r="P180" s="6"/>
+      <c r="Q180" s="6"/>
+    </row>
+    <row r="181">
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6"/>
+      <c r="N181" s="6"/>
+      <c r="O181" s="6"/>
+      <c r="P181" s="6"/>
+      <c r="Q181" s="6"/>
+    </row>
+    <row r="182">
+      <c r="E182" s="6"/>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6"/>
+      <c r="N182" s="6"/>
+      <c r="O182" s="6"/>
+      <c r="P182" s="6"/>
+      <c r="Q182" s="6"/>
+    </row>
+    <row r="183">
+      <c r="E183" s="6"/>
+      <c r="F183" s="6"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6"/>
+      <c r="N183" s="6"/>
+      <c r="O183" s="6"/>
+      <c r="P183" s="6"/>
+      <c r="Q183" s="6"/>
+    </row>
+    <row r="184">
+      <c r="E184" s="6"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6"/>
+      <c r="N184" s="6"/>
+      <c r="O184" s="6"/>
+      <c r="P184" s="6"/>
+      <c r="Q184" s="6"/>
+    </row>
+    <row r="185">
+      <c r="E185" s="6"/>
+      <c r="F185" s="6"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6"/>
+      <c r="N185" s="6"/>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6"/>
+      <c r="Q185" s="6"/>
+    </row>
+    <row r="186">
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+      <c r="N186" s="6"/>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6"/>
+      <c r="Q186" s="6"/>
+    </row>
+    <row r="187">
+      <c r="E187" s="6"/>
+      <c r="F187" s="6"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6"/>
+      <c r="N187" s="6"/>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6"/>
+      <c r="Q187" s="6"/>
+    </row>
+    <row r="188">
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
+    </row>
+    <row r="189">
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="6"/>
+      <c r="L189" s="6"/>
+      <c r="M189" s="6"/>
+      <c r="N189" s="6"/>
+      <c r="O189" s="6"/>
+      <c r="P189" s="6"/>
+      <c r="Q189" s="6"/>
+    </row>
+    <row r="190">
+      <c r="E190" s="6"/>
+      <c r="F190" s="6"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="6"/>
+      <c r="L190" s="6"/>
+      <c r="M190" s="6"/>
+      <c r="N190" s="6"/>
+      <c r="O190" s="6"/>
+      <c r="P190" s="6"/>
+      <c r="Q190" s="6"/>
+    </row>
+    <row r="191">
+      <c r="E191" s="6"/>
+      <c r="F191" s="6"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6"/>
+      <c r="N191" s="6"/>
+      <c r="O191" s="6"/>
+      <c r="P191" s="6"/>
+      <c r="Q191" s="6"/>
+    </row>
+    <row r="192">
+      <c r="E192" s="6"/>
+      <c r="F192" s="6"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6"/>
+      <c r="N192" s="6"/>
+      <c r="O192" s="6"/>
+      <c r="P192" s="6"/>
+      <c r="Q192" s="6"/>
+    </row>
+    <row r="193">
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="6"/>
+    </row>
+    <row r="194">
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="6"/>
+    </row>
+    <row r="195">
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="6"/>
+    </row>
+    <row r="196">
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
+      <c r="Q196" s="6"/>
+    </row>
+    <row r="197">
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="6"/>
+    </row>
+    <row r="198">
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="6"/>
+    </row>
+    <row r="199">
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="6"/>
+      <c r="L199" s="6"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+    </row>
+    <row r="200">
+      <c r="E200" s="6"/>
+      <c r="F200" s="6"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="6"/>
+      <c r="L200" s="6"/>
+      <c r="M200" s="6"/>
+      <c r="N200" s="6"/>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6"/>
+      <c r="Q200" s="6"/>
+    </row>
+    <row r="201">
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+    </row>
+    <row r="202">
+      <c r="E202" s="6"/>
+      <c r="F202" s="6"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="6"/>
+      <c r="K202" s="6"/>
+      <c r="L202" s="6"/>
+      <c r="M202" s="6"/>
+      <c r="N202" s="6"/>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6"/>
+      <c r="Q202" s="6"/>
+    </row>
+    <row r="203">
+      <c r="E203" s="6"/>
+      <c r="F203" s="6"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="6"/>
+      <c r="K203" s="6"/>
+      <c r="L203" s="6"/>
+      <c r="M203" s="6"/>
+      <c r="N203" s="6"/>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6"/>
+      <c r="Q203" s="6"/>
+    </row>
+    <row r="204">
+      <c r="E204" s="6"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="6"/>
+      <c r="K204" s="6"/>
+      <c r="L204" s="6"/>
+      <c r="M204" s="6"/>
+      <c r="N204" s="6"/>
+      <c r="O204" s="6"/>
+      <c r="P204" s="6"/>
+      <c r="Q204" s="6"/>
+    </row>
+    <row r="205">
+      <c r="E205" s="6"/>
+      <c r="F205" s="6"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="6"/>
+      <c r="K205" s="6"/>
+      <c r="L205" s="6"/>
+      <c r="M205" s="6"/>
+      <c r="N205" s="6"/>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6"/>
+      <c r="Q205" s="6"/>
+    </row>
+    <row r="206">
+      <c r="E206" s="6"/>
+      <c r="F206" s="6"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="6"/>
+      <c r="K206" s="6"/>
+      <c r="L206" s="6"/>
+      <c r="M206" s="6"/>
+      <c r="N206" s="6"/>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6"/>
+      <c r="Q206" s="6"/>
+    </row>
+    <row r="207">
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="6"/>
+    </row>
+    <row r="208">
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="6"/>
+    </row>
+    <row r="209">
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="6"/>
+    </row>
+    <row r="210">
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="6"/>
+    </row>
+    <row r="211">
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+    </row>
+    <row r="212">
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+    </row>
+    <row r="213">
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="6"/>
+      <c r="I213" s="6"/>
+      <c r="J213" s="6"/>
+      <c r="K213" s="6"/>
+      <c r="L213" s="6"/>
+      <c r="M213" s="6"/>
+      <c r="N213" s="6"/>
+      <c r="O213" s="6"/>
+      <c r="P213" s="6"/>
+      <c r="Q213" s="6"/>
+    </row>
+    <row r="214">
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="6"/>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="6"/>
+      <c r="L214" s="6"/>
+      <c r="M214" s="6"/>
+      <c r="N214" s="6"/>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6"/>
+      <c r="Q214" s="6"/>
+    </row>
+    <row r="215">
+      <c r="E215" s="6"/>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="6"/>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="6"/>
+      <c r="L215" s="6"/>
+      <c r="M215" s="6"/>
+      <c r="N215" s="6"/>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6"/>
+      <c r="Q215" s="6"/>
+    </row>
+    <row r="216">
+      <c r="E216" s="6"/>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="6"/>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="6"/>
+      <c r="L216" s="6"/>
+      <c r="M216" s="6"/>
+      <c r="N216" s="6"/>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6"/>
+      <c r="Q216" s="6"/>
+    </row>
+    <row r="217">
+      <c r="E217" s="6"/>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="6"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="6"/>
+      <c r="L217" s="6"/>
+      <c r="M217" s="6"/>
+      <c r="N217" s="6"/>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6"/>
+      <c r="Q217" s="6"/>
+    </row>
+    <row r="218">
+      <c r="E218" s="6"/>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="6"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="6"/>
+      <c r="L218" s="6"/>
+      <c r="M218" s="6"/>
+      <c r="N218" s="6"/>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6"/>
+      <c r="Q218" s="6"/>
+    </row>
+    <row r="219">
+      <c r="E219" s="6"/>
+      <c r="F219" s="6"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="6"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="6"/>
+      <c r="L219" s="6"/>
+      <c r="M219" s="6"/>
+      <c r="N219" s="6"/>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6"/>
+      <c r="Q219" s="6"/>
+    </row>
+    <row r="220">
+      <c r="E220" s="6"/>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6"/>
+      <c r="N220" s="6"/>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6"/>
+      <c r="Q220" s="6"/>
+    </row>
+    <row r="221">
+      <c r="E221" s="6"/>
+      <c r="F221" s="6"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="6"/>
+      <c r="N221" s="6"/>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6"/>
+      <c r="Q221" s="6"/>
+    </row>
+    <row r="222">
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+      <c r="M222" s="6"/>
+      <c r="N222" s="6"/>
+      <c r="O222" s="6"/>
+      <c r="P222" s="6"/>
+      <c r="Q222" s="6"/>
+    </row>
+    <row r="223">
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+      <c r="M223" s="6"/>
+      <c r="N223" s="6"/>
+      <c r="O223" s="6"/>
+      <c r="P223" s="6"/>
+      <c r="Q223" s="6"/>
+    </row>
+    <row r="224">
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+      <c r="M224" s="6"/>
+      <c r="N224" s="6"/>
+      <c r="O224" s="6"/>
+      <c r="P224" s="6"/>
+      <c r="Q224" s="6"/>
+    </row>
+    <row r="225">
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+      <c r="M225" s="6"/>
+      <c r="N225" s="6"/>
+      <c r="O225" s="6"/>
+      <c r="P225" s="6"/>
+      <c r="Q225" s="6"/>
+    </row>
+    <row r="226">
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6"/>
+      <c r="N226" s="6"/>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6"/>
+      <c r="Q226" s="6"/>
+    </row>
+    <row r="227">
+      <c r="E227" s="6"/>
+      <c r="F227" s="6"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6"/>
+      <c r="N227" s="6"/>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6"/>
+      <c r="Q227" s="6"/>
+    </row>
+    <row r="228">
+      <c r="E228" s="6"/>
+      <c r="F228" s="6"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6"/>
+      <c r="N228" s="6"/>
+      <c r="O228" s="6"/>
+      <c r="P228" s="6"/>
+      <c r="Q228" s="6"/>
+    </row>
+    <row r="229">
+      <c r="E229" s="6"/>
+      <c r="F229" s="6"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6"/>
+      <c r="N229" s="6"/>
+      <c r="O229" s="6"/>
+      <c r="P229" s="6"/>
+      <c r="Q229" s="6"/>
+    </row>
+    <row r="230">
+      <c r="E230" s="6"/>
+      <c r="F230" s="6"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+      <c r="M230" s="6"/>
+      <c r="N230" s="6"/>
+      <c r="O230" s="6"/>
+      <c r="P230" s="6"/>
+      <c r="Q230" s="6"/>
+    </row>
+    <row r="231">
+      <c r="E231" s="6"/>
+      <c r="F231" s="6"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="6"/>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6"/>
+      <c r="N231" s="6"/>
+      <c r="O231" s="6"/>
+      <c r="P231" s="6"/>
+      <c r="Q231" s="6"/>
+    </row>
+    <row r="232">
+      <c r="E232" s="6"/>
+      <c r="F232" s="6"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6"/>
+      <c r="N232" s="6"/>
+      <c r="O232" s="6"/>
+      <c r="P232" s="6"/>
+      <c r="Q232" s="6"/>
+    </row>
+    <row r="233">
+      <c r="E233" s="6"/>
+      <c r="F233" s="6"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+      <c r="M233" s="6"/>
+      <c r="N233" s="6"/>
+      <c r="O233" s="6"/>
+      <c r="P233" s="6"/>
+      <c r="Q233" s="6"/>
+    </row>
+    <row r="234">
+      <c r="E234" s="6"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6"/>
+      <c r="N234" s="6"/>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6"/>
+      <c r="Q234" s="6"/>
+    </row>
+    <row r="235">
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6"/>
+      <c r="N235" s="6"/>
+      <c r="O235" s="6"/>
+      <c r="P235" s="6"/>
+      <c r="Q235" s="6"/>
+    </row>
+    <row r="236">
+      <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+      <c r="M236" s="6"/>
+      <c r="N236" s="6"/>
+      <c r="O236" s="6"/>
+      <c r="P236" s="6"/>
+      <c r="Q236" s="6"/>
+    </row>
+    <row r="237">
+      <c r="E237" s="6"/>
+      <c r="F237" s="6"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+      <c r="M237" s="6"/>
+      <c r="N237" s="6"/>
+      <c r="O237" s="6"/>
+      <c r="P237" s="6"/>
+      <c r="Q237" s="6"/>
+    </row>
+    <row r="238">
+      <c r="E238" s="6"/>
+      <c r="F238" s="6"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+      <c r="M238" s="6"/>
+      <c r="N238" s="6"/>
+      <c r="O238" s="6"/>
+      <c r="P238" s="6"/>
+      <c r="Q238" s="6"/>
+    </row>
+    <row r="239">
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+      <c r="M239" s="6"/>
+      <c r="N239" s="6"/>
+      <c r="O239" s="6"/>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="6"/>
+    </row>
+    <row r="240">
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+      <c r="M240" s="6"/>
+      <c r="N240" s="6"/>
+      <c r="O240" s="6"/>
+      <c r="P240" s="6"/>
+      <c r="Q240" s="6"/>
+    </row>
+    <row r="241">
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+      <c r="M241" s="6"/>
+      <c r="N241" s="6"/>
+      <c r="O241" s="6"/>
+      <c r="P241" s="6"/>
+      <c r="Q241" s="6"/>
+    </row>
+    <row r="242">
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+      <c r="M242" s="6"/>
+      <c r="N242" s="6"/>
+      <c r="O242" s="6"/>
+      <c r="P242" s="6"/>
+      <c r="Q242" s="6"/>
+    </row>
+    <row r="243">
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+      <c r="M243" s="6"/>
+      <c r="N243" s="6"/>
+      <c r="O243" s="6"/>
+      <c r="P243" s="6"/>
+      <c r="Q243" s="6"/>
+    </row>
+    <row r="244">
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+      <c r="M244" s="6"/>
+      <c r="N244" s="6"/>
+      <c r="O244" s="6"/>
+      <c r="P244" s="6"/>
+      <c r="Q244" s="6"/>
+    </row>
+    <row r="245">
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+      <c r="M245" s="6"/>
+      <c r="N245" s="6"/>
+      <c r="O245" s="6"/>
+      <c r="P245" s="6"/>
+      <c r="Q245" s="6"/>
+    </row>
+    <row r="246">
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+      <c r="M246" s="6"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="6"/>
+    </row>
+    <row r="247">
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+      <c r="M247" s="6"/>
+      <c r="N247" s="6"/>
+      <c r="O247" s="6"/>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+    </row>
+    <row r="248">
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+      <c r="M248" s="6"/>
+      <c r="N248" s="6"/>
+      <c r="O248" s="6"/>
+      <c r="P248" s="6"/>
+      <c r="Q248" s="6"/>
+    </row>
+    <row r="249">
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+      <c r="M249" s="6"/>
+      <c r="N249" s="6"/>
+      <c r="O249" s="6"/>
+      <c r="P249" s="6"/>
+      <c r="Q249" s="6"/>
+    </row>
+    <row r="250">
+      <c r="E250" s="6"/>
+      <c r="F250" s="6"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+      <c r="M250" s="6"/>
+      <c r="N250" s="6"/>
+      <c r="O250" s="6"/>
+      <c r="P250" s="6"/>
+      <c r="Q250" s="6"/>
+    </row>
+    <row r="251">
+      <c r="E251" s="6"/>
+      <c r="F251" s="6"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+      <c r="M251" s="6"/>
+      <c r="N251" s="6"/>
+      <c r="O251" s="6"/>
+      <c r="P251" s="6"/>
+      <c r="Q251" s="6"/>
+    </row>
+    <row r="252">
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+      <c r="M252" s="6"/>
+      <c r="N252" s="6"/>
+      <c r="O252" s="6"/>
+      <c r="P252" s="6"/>
+      <c r="Q252" s="6"/>
+    </row>
+    <row r="253">
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+      <c r="M253" s="6"/>
+      <c r="N253" s="6"/>
+      <c r="O253" s="6"/>
+      <c r="P253" s="6"/>
+      <c r="Q253" s="6"/>
+    </row>
+    <row r="254">
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+      <c r="M254" s="6"/>
+      <c r="N254" s="6"/>
+      <c r="O254" s="6"/>
+      <c r="P254" s="6"/>
+      <c r="Q254" s="6"/>
+    </row>
+    <row r="255">
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+      <c r="M255" s="6"/>
+      <c r="N255" s="6"/>
+      <c r="O255" s="6"/>
+      <c r="P255" s="6"/>
+      <c r="Q255" s="6"/>
+    </row>
+    <row r="256">
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+      <c r="M256" s="6"/>
+      <c r="N256" s="6"/>
+      <c r="O256" s="6"/>
+      <c r="P256" s="6"/>
+      <c r="Q256" s="6"/>
+    </row>
+    <row r="257">
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+      <c r="M257" s="6"/>
+      <c r="N257" s="6"/>
+      <c r="O257" s="6"/>
+      <c r="P257" s="6"/>
+      <c r="Q257" s="6"/>
+    </row>
+    <row r="258">
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+      <c r="M258" s="6"/>
+      <c r="N258" s="6"/>
+      <c r="O258" s="6"/>
+      <c r="P258" s="6"/>
+      <c r="Q258" s="6"/>
+    </row>
+    <row r="259">
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+      <c r="M259" s="6"/>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+      <c r="P259" s="6"/>
+      <c r="Q259" s="6"/>
+    </row>
+    <row r="260">
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+      <c r="M260" s="6"/>
+      <c r="N260" s="6"/>
+      <c r="O260" s="6"/>
+      <c r="P260" s="6"/>
+      <c r="Q260" s="6"/>
+    </row>
+    <row r="261">
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="6"/>
+      <c r="M261" s="6"/>
+      <c r="N261" s="6"/>
+      <c r="O261" s="6"/>
+      <c r="P261" s="6"/>
+      <c r="Q261" s="6"/>
+    </row>
+    <row r="262">
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+      <c r="K262" s="6"/>
+      <c r="L262" s="6"/>
+      <c r="M262" s="6"/>
+      <c r="N262" s="6"/>
+      <c r="O262" s="6"/>
+      <c r="P262" s="6"/>
+      <c r="Q262" s="6"/>
+    </row>
+    <row r="263">
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+      <c r="K263" s="6"/>
+      <c r="L263" s="6"/>
+      <c r="M263" s="6"/>
+      <c r="N263" s="6"/>
+      <c r="O263" s="6"/>
+      <c r="P263" s="6"/>
+      <c r="Q263" s="6"/>
+    </row>
+    <row r="264">
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
+      <c r="K264" s="6"/>
+      <c r="L264" s="6"/>
+      <c r="M264" s="6"/>
+      <c r="N264" s="6"/>
+      <c r="O264" s="6"/>
+      <c r="P264" s="6"/>
+      <c r="Q264" s="6"/>
+    </row>
+    <row r="265">
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
+      <c r="K265" s="6"/>
+      <c r="L265" s="6"/>
+      <c r="M265" s="6"/>
+      <c r="N265" s="6"/>
+      <c r="O265" s="6"/>
+      <c r="P265" s="6"/>
+      <c r="Q265" s="6"/>
+    </row>
+    <row r="266">
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="6"/>
+      <c r="J266" s="6"/>
+      <c r="K266" s="6"/>
+      <c r="L266" s="6"/>
+      <c r="M266" s="6"/>
+      <c r="N266" s="6"/>
+      <c r="O266" s="6"/>
+      <c r="P266" s="6"/>
+      <c r="Q266" s="6"/>
+    </row>
+    <row r="267">
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="6"/>
+      <c r="J267" s="6"/>
+      <c r="K267" s="6"/>
+      <c r="L267" s="6"/>
+      <c r="M267" s="6"/>
+      <c r="N267" s="6"/>
+      <c r="O267" s="6"/>
+      <c r="P267" s="6"/>
+      <c r="Q267" s="6"/>
+    </row>
+    <row r="268">
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+      <c r="K268" s="6"/>
+      <c r="L268" s="6"/>
+      <c r="M268" s="6"/>
+      <c r="N268" s="6"/>
+      <c r="O268" s="6"/>
+      <c r="P268" s="6"/>
+      <c r="Q268" s="6"/>
+    </row>
+    <row r="269">
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+      <c r="K269" s="6"/>
+      <c r="L269" s="6"/>
+      <c r="M269" s="6"/>
+      <c r="N269" s="6"/>
+      <c r="O269" s="6"/>
+      <c r="P269" s="6"/>
+      <c r="Q269" s="6"/>
+    </row>
+    <row r="270">
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+      <c r="K270" s="6"/>
+      <c r="L270" s="6"/>
+      <c r="M270" s="6"/>
+      <c r="N270" s="6"/>
+      <c r="O270" s="6"/>
+      <c r="P270" s="6"/>
+      <c r="Q270" s="6"/>
+    </row>
+    <row r="271">
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+      <c r="K271" s="6"/>
+      <c r="L271" s="6"/>
+      <c r="M271" s="6"/>
+      <c r="N271" s="6"/>
+      <c r="O271" s="6"/>
+      <c r="P271" s="6"/>
+      <c r="Q271" s="6"/>
+    </row>
+    <row r="272">
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+      <c r="K272" s="6"/>
+      <c r="L272" s="6"/>
+      <c r="M272" s="6"/>
+      <c r="N272" s="6"/>
+      <c r="O272" s="6"/>
+      <c r="P272" s="6"/>
+      <c r="Q272" s="6"/>
+    </row>
+    <row r="273">
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+      <c r="K273" s="6"/>
+      <c r="L273" s="6"/>
+      <c r="M273" s="6"/>
+      <c r="N273" s="6"/>
+      <c r="O273" s="6"/>
+      <c r="P273" s="6"/>
+      <c r="Q273" s="6"/>
+    </row>
+    <row r="274">
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+      <c r="K274" s="6"/>
+      <c r="L274" s="6"/>
+      <c r="M274" s="6"/>
+      <c r="N274" s="6"/>
+      <c r="O274" s="6"/>
+      <c r="P274" s="6"/>
+      <c r="Q274" s="6"/>
+    </row>
+    <row r="275">
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+      <c r="K275" s="6"/>
+      <c r="L275" s="6"/>
+      <c r="M275" s="6"/>
+      <c r="N275" s="6"/>
+      <c r="O275" s="6"/>
+      <c r="P275" s="6"/>
+      <c r="Q275" s="6"/>
+    </row>
+    <row r="276">
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+      <c r="K276" s="6"/>
+      <c r="L276" s="6"/>
+      <c r="M276" s="6"/>
+      <c r="N276" s="6"/>
+      <c r="O276" s="6"/>
+      <c r="P276" s="6"/>
+      <c r="Q276" s="6"/>
+    </row>
+    <row r="277">
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+      <c r="K277" s="6"/>
+      <c r="L277" s="6"/>
+      <c r="M277" s="6"/>
+      <c r="N277" s="6"/>
+      <c r="O277" s="6"/>
+      <c r="P277" s="6"/>
+      <c r="Q277" s="6"/>
+    </row>
+    <row r="278">
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
+      <c r="K278" s="6"/>
+      <c r="L278" s="6"/>
+      <c r="M278" s="6"/>
+      <c r="N278" s="6"/>
+      <c r="O278" s="6"/>
+      <c r="P278" s="6"/>
+      <c r="Q278" s="6"/>
+    </row>
+    <row r="279">
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="6"/>
+      <c r="J279" s="6"/>
+      <c r="K279" s="6"/>
+      <c r="L279" s="6"/>
+      <c r="M279" s="6"/>
+      <c r="N279" s="6"/>
+      <c r="O279" s="6"/>
+      <c r="P279" s="6"/>
+      <c r="Q279" s="6"/>
+    </row>
+    <row r="280">
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+      <c r="K280" s="6"/>
+      <c r="L280" s="6"/>
+      <c r="M280" s="6"/>
+      <c r="N280" s="6"/>
+      <c r="O280" s="6"/>
+      <c r="P280" s="6"/>
+      <c r="Q280" s="6"/>
+    </row>
+    <row r="281">
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+      <c r="K281" s="6"/>
+      <c r="L281" s="6"/>
+      <c r="M281" s="6"/>
+      <c r="N281" s="6"/>
+      <c r="O281" s="6"/>
+      <c r="P281" s="6"/>
+      <c r="Q281" s="6"/>
+    </row>
+    <row r="282">
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+      <c r="K282" s="6"/>
+      <c r="L282" s="6"/>
+      <c r="M282" s="6"/>
+      <c r="N282" s="6"/>
+      <c r="O282" s="6"/>
+      <c r="P282" s="6"/>
+      <c r="Q282" s="6"/>
+    </row>
+    <row r="283">
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
+      <c r="K283" s="6"/>
+      <c r="L283" s="6"/>
+      <c r="M283" s="6"/>
+      <c r="N283" s="6"/>
+      <c r="O283" s="6"/>
+      <c r="P283" s="6"/>
+      <c r="Q283" s="6"/>
+    </row>
+    <row r="284">
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+      <c r="K284" s="6"/>
+      <c r="L284" s="6"/>
+      <c r="M284" s="6"/>
+      <c r="N284" s="6"/>
+      <c r="O284" s="6"/>
+      <c r="P284" s="6"/>
+      <c r="Q284" s="6"/>
+    </row>
+    <row r="285">
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="6"/>
+      <c r="J285" s="6"/>
+      <c r="K285" s="6"/>
+      <c r="L285" s="6"/>
+      <c r="M285" s="6"/>
+      <c r="N285" s="6"/>
+      <c r="O285" s="6"/>
+      <c r="P285" s="6"/>
+      <c r="Q285" s="6"/>
+    </row>
+    <row r="286">
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="6"/>
+      <c r="J286" s="6"/>
+      <c r="K286" s="6"/>
+      <c r="L286" s="6"/>
+      <c r="M286" s="6"/>
+      <c r="N286" s="6"/>
+      <c r="O286" s="6"/>
+      <c r="P286" s="6"/>
+      <c r="Q286" s="6"/>
+    </row>
+    <row r="287">
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+      <c r="I287" s="6"/>
+      <c r="J287" s="6"/>
+      <c r="K287" s="6"/>
+      <c r="L287" s="6"/>
+      <c r="M287" s="6"/>
+      <c r="N287" s="6"/>
+      <c r="O287" s="6"/>
+      <c r="P287" s="6"/>
+      <c r="Q287" s="6"/>
+    </row>
+    <row r="288">
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
+      <c r="K288" s="6"/>
+      <c r="L288" s="6"/>
+      <c r="M288" s="6"/>
+      <c r="N288" s="6"/>
+      <c r="O288" s="6"/>
+      <c r="P288" s="6"/>
+      <c r="Q288" s="6"/>
+    </row>
+    <row r="289">
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
+      <c r="K289" s="6"/>
+      <c r="L289" s="6"/>
+      <c r="M289" s="6"/>
+      <c r="N289" s="6"/>
+      <c r="O289" s="6"/>
+      <c r="P289" s="6"/>
+      <c r="Q289" s="6"/>
+    </row>
+    <row r="290">
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+      <c r="I290" s="6"/>
+      <c r="J290" s="6"/>
+      <c r="K290" s="6"/>
+      <c r="L290" s="6"/>
+      <c r="M290" s="6"/>
+      <c r="N290" s="6"/>
+      <c r="O290" s="6"/>
+      <c r="P290" s="6"/>
+      <c r="Q290" s="6"/>
+    </row>
+    <row r="291">
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
+      <c r="I291" s="6"/>
+      <c r="J291" s="6"/>
+      <c r="K291" s="6"/>
+      <c r="L291" s="6"/>
+      <c r="M291" s="6"/>
+      <c r="N291" s="6"/>
+      <c r="O291" s="6"/>
+      <c r="P291" s="6"/>
+      <c r="Q291" s="6"/>
+    </row>
+    <row r="292">
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
+      <c r="I292" s="6"/>
+      <c r="J292" s="6"/>
+      <c r="K292" s="6"/>
+      <c r="L292" s="6"/>
+      <c r="M292" s="6"/>
+      <c r="N292" s="6"/>
+      <c r="O292" s="6"/>
+      <c r="P292" s="6"/>
+      <c r="Q292" s="6"/>
+    </row>
+    <row r="293">
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
+      <c r="I293" s="6"/>
+      <c r="J293" s="6"/>
+      <c r="K293" s="6"/>
+      <c r="L293" s="6"/>
+      <c r="M293" s="6"/>
+      <c r="N293" s="6"/>
+      <c r="O293" s="6"/>
+      <c r="P293" s="6"/>
+      <c r="Q293" s="6"/>
+    </row>
+    <row r="294">
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+      <c r="I294" s="6"/>
+      <c r="J294" s="6"/>
+      <c r="K294" s="6"/>
+      <c r="L294" s="6"/>
+      <c r="M294" s="6"/>
+      <c r="N294" s="6"/>
+      <c r="O294" s="6"/>
+      <c r="P294" s="6"/>
+      <c r="Q294" s="6"/>
+    </row>
+    <row r="295">
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
+      <c r="I295" s="6"/>
+      <c r="J295" s="6"/>
+      <c r="K295" s="6"/>
+      <c r="L295" s="6"/>
+      <c r="M295" s="6"/>
+      <c r="N295" s="6"/>
+      <c r="O295" s="6"/>
+      <c r="P295" s="6"/>
+      <c r="Q295" s="6"/>
+    </row>
+    <row r="296">
+      <c r="E296" s="6"/>
+      <c r="F296" s="6"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+      <c r="I296" s="6"/>
+      <c r="J296" s="6"/>
+      <c r="K296" s="6"/>
+      <c r="L296" s="6"/>
+      <c r="M296" s="6"/>
+      <c r="N296" s="6"/>
+      <c r="O296" s="6"/>
+      <c r="P296" s="6"/>
+      <c r="Q296" s="6"/>
+    </row>
+    <row r="297">
+      <c r="E297" s="6"/>
+      <c r="F297" s="6"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+      <c r="I297" s="6"/>
+      <c r="J297" s="6"/>
+      <c r="K297" s="6"/>
+      <c r="L297" s="6"/>
+      <c r="M297" s="6"/>
+      <c r="N297" s="6"/>
+      <c r="O297" s="6"/>
+      <c r="P297" s="6"/>
+      <c r="Q297" s="6"/>
+    </row>
+    <row r="298">
+      <c r="E298" s="6"/>
+      <c r="F298" s="6"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+      <c r="I298" s="6"/>
+      <c r="J298" s="6"/>
+      <c r="K298" s="6"/>
+      <c r="L298" s="6"/>
+      <c r="M298" s="6"/>
+      <c r="N298" s="6"/>
+      <c r="O298" s="6"/>
+      <c r="P298" s="6"/>
+      <c r="Q298" s="6"/>
+    </row>
+    <row r="299">
+      <c r="E299" s="6"/>
+      <c r="F299" s="6"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+      <c r="I299" s="6"/>
+      <c r="J299" s="6"/>
+      <c r="K299" s="6"/>
+      <c r="L299" s="6"/>
+      <c r="M299" s="6"/>
+      <c r="N299" s="6"/>
+      <c r="O299" s="6"/>
+      <c r="P299" s="6"/>
+      <c r="Q299" s="6"/>
+    </row>
+    <row r="300">
+      <c r="E300" s="6"/>
+      <c r="F300" s="6"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+      <c r="I300" s="6"/>
+      <c r="J300" s="6"/>
+      <c r="K300" s="6"/>
+      <c r="L300" s="6"/>
+      <c r="M300" s="6"/>
+      <c r="N300" s="6"/>
+      <c r="O300" s="6"/>
+      <c r="P300" s="6"/>
+      <c r="Q300" s="6"/>
+    </row>
+    <row r="301">
+      <c r="E301" s="6"/>
+      <c r="F301" s="6"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+      <c r="I301" s="6"/>
+      <c r="J301" s="6"/>
+      <c r="K301" s="6"/>
+      <c r="L301" s="6"/>
+      <c r="M301" s="6"/>
+      <c r="N301" s="6"/>
+      <c r="O301" s="6"/>
+      <c r="P301" s="6"/>
+      <c r="Q301" s="6"/>
+    </row>
+    <row r="302">
+      <c r="E302" s="6"/>
+      <c r="F302" s="6"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+      <c r="I302" s="6"/>
+      <c r="J302" s="6"/>
+      <c r="K302" s="6"/>
+      <c r="L302" s="6"/>
+      <c r="M302" s="6"/>
+      <c r="N302" s="6"/>
+      <c r="O302" s="6"/>
+      <c r="P302" s="6"/>
+      <c r="Q302" s="6"/>
+    </row>
+    <row r="303">
+      <c r="E303" s="6"/>
+      <c r="F303" s="6"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+      <c r="I303" s="6"/>
+      <c r="J303" s="6"/>
+      <c r="K303" s="6"/>
+      <c r="L303" s="6"/>
+      <c r="M303" s="6"/>
+      <c r="N303" s="6"/>
+      <c r="O303" s="6"/>
+      <c r="P303" s="6"/>
+      <c r="Q303" s="6"/>
+    </row>
+    <row r="304">
+      <c r="E304" s="6"/>
+      <c r="F304" s="6"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
+      <c r="I304" s="6"/>
+      <c r="J304" s="6"/>
+      <c r="K304" s="6"/>
+      <c r="L304" s="6"/>
+      <c r="M304" s="6"/>
+      <c r="N304" s="6"/>
+      <c r="O304" s="6"/>
+      <c r="P304" s="6"/>
+      <c r="Q304" s="6"/>
+    </row>
+    <row r="305">
+      <c r="E305" s="6"/>
+      <c r="F305" s="6"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+      <c r="I305" s="6"/>
+      <c r="J305" s="6"/>
+      <c r="K305" s="6"/>
+      <c r="L305" s="6"/>
+      <c r="M305" s="6"/>
+      <c r="N305" s="6"/>
+      <c r="O305" s="6"/>
+      <c r="P305" s="6"/>
+      <c r="Q305" s="6"/>
+    </row>
+    <row r="306">
+      <c r="E306" s="6"/>
+      <c r="F306" s="6"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
+      <c r="I306" s="6"/>
+      <c r="J306" s="6"/>
+      <c r="K306" s="6"/>
+      <c r="L306" s="6"/>
+      <c r="M306" s="6"/>
+      <c r="N306" s="6"/>
+      <c r="O306" s="6"/>
+      <c r="P306" s="6"/>
+      <c r="Q306" s="6"/>
+    </row>
+    <row r="307">
+      <c r="E307" s="6"/>
+      <c r="F307" s="6"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="6"/>
+      <c r="I307" s="6"/>
+      <c r="J307" s="6"/>
+      <c r="K307" s="6"/>
+      <c r="L307" s="6"/>
+      <c r="M307" s="6"/>
+      <c r="N307" s="6"/>
+      <c r="O307" s="6"/>
+      <c r="P307" s="6"/>
+      <c r="Q307" s="6"/>
+    </row>
+    <row r="308">
+      <c r="E308" s="6"/>
+      <c r="F308" s="6"/>
+      <c r="G308" s="6"/>
+      <c r="H308" s="6"/>
+      <c r="I308" s="6"/>
+      <c r="J308" s="6"/>
+      <c r="K308" s="6"/>
+      <c r="L308" s="6"/>
+      <c r="M308" s="6"/>
+      <c r="N308" s="6"/>
+      <c r="O308" s="6"/>
+      <c r="P308" s="6"/>
+      <c r="Q308" s="6"/>
+    </row>
+    <row r="309">
+      <c r="E309" s="6"/>
+      <c r="F309" s="6"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="6"/>
+      <c r="I309" s="6"/>
+      <c r="J309" s="6"/>
+      <c r="K309" s="6"/>
+      <c r="L309" s="6"/>
+      <c r="M309" s="6"/>
+      <c r="N309" s="6"/>
+      <c r="O309" s="6"/>
+      <c r="P309" s="6"/>
+      <c r="Q309" s="6"/>
+    </row>
+    <row r="310">
+      <c r="E310" s="6"/>
+      <c r="F310" s="6"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="6"/>
+      <c r="I310" s="6"/>
+      <c r="J310" s="6"/>
+      <c r="K310" s="6"/>
+      <c r="L310" s="6"/>
+      <c r="M310" s="6"/>
+      <c r="N310" s="6"/>
+      <c r="O310" s="6"/>
+      <c r="P310" s="6"/>
+      <c r="Q310" s="6"/>
+    </row>
+    <row r="311">
+      <c r="E311" s="6"/>
+      <c r="F311" s="6"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="6"/>
+      <c r="I311" s="6"/>
+      <c r="J311" s="6"/>
+      <c r="K311" s="6"/>
+      <c r="L311" s="6"/>
+      <c r="M311" s="6"/>
+      <c r="N311" s="6"/>
+      <c r="O311" s="6"/>
+      <c r="P311" s="6"/>
+      <c r="Q311" s="6"/>
+    </row>
+    <row r="312">
+      <c r="E312" s="6"/>
+      <c r="F312" s="6"/>
+      <c r="G312" s="6"/>
+      <c r="H312" s="6"/>
+      <c r="I312" s="6"/>
+      <c r="J312" s="6"/>
+      <c r="K312" s="6"/>
+      <c r="L312" s="6"/>
+      <c r="M312" s="6"/>
+      <c r="N312" s="6"/>
+      <c r="O312" s="6"/>
+      <c r="P312" s="6"/>
+      <c r="Q312" s="6"/>
+    </row>
+    <row r="313">
+      <c r="E313" s="6"/>
+      <c r="F313" s="6"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="6"/>
+      <c r="I313" s="6"/>
+      <c r="J313" s="6"/>
+      <c r="K313" s="6"/>
+      <c r="L313" s="6"/>
+      <c r="M313" s="6"/>
+      <c r="N313" s="6"/>
+      <c r="O313" s="6"/>
+      <c r="P313" s="6"/>
+      <c r="Q313" s="6"/>
+    </row>
+    <row r="314">
+      <c r="E314" s="6"/>
+      <c r="F314" s="6"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="6"/>
+      <c r="I314" s="6"/>
+      <c r="J314" s="6"/>
+      <c r="K314" s="6"/>
+      <c r="L314" s="6"/>
+      <c r="M314" s="6"/>
+      <c r="N314" s="6"/>
+      <c r="O314" s="6"/>
+      <c r="P314" s="6"/>
+      <c r="Q314" s="6"/>
+    </row>
+    <row r="315">
+      <c r="E315" s="6"/>
+      <c r="F315" s="6"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="6"/>
+      <c r="I315" s="6"/>
+      <c r="J315" s="6"/>
+      <c r="K315" s="6"/>
+      <c r="L315" s="6"/>
+      <c r="M315" s="6"/>
+      <c r="N315" s="6"/>
+      <c r="O315" s="6"/>
+      <c r="P315" s="6"/>
+      <c r="Q315" s="6"/>
+    </row>
+    <row r="316">
+      <c r="E316" s="6"/>
+      <c r="F316" s="6"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="6"/>
+      <c r="I316" s="6"/>
+      <c r="J316" s="6"/>
+      <c r="K316" s="6"/>
+      <c r="L316" s="6"/>
+      <c r="M316" s="6"/>
+      <c r="N316" s="6"/>
+      <c r="O316" s="6"/>
+      <c r="P316" s="6"/>
+      <c r="Q316" s="6"/>
+    </row>
+    <row r="317">
+      <c r="E317" s="6"/>
+      <c r="F317" s="6"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="6"/>
+      <c r="I317" s="6"/>
+      <c r="J317" s="6"/>
+      <c r="K317" s="6"/>
+      <c r="L317" s="6"/>
+      <c r="M317" s="6"/>
+      <c r="N317" s="6"/>
+      <c r="O317" s="6"/>
+      <c r="P317" s="6"/>
+      <c r="Q317" s="6"/>
+    </row>
+    <row r="318">
+      <c r="E318" s="6"/>
+      <c r="F318" s="6"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="6"/>
+      <c r="I318" s="6"/>
+      <c r="J318" s="6"/>
+      <c r="K318" s="6"/>
+      <c r="L318" s="6"/>
+      <c r="M318" s="6"/>
+      <c r="N318" s="6"/>
+      <c r="O318" s="6"/>
+      <c r="P318" s="6"/>
+      <c r="Q318" s="6"/>
+    </row>
+    <row r="319">
+      <c r="E319" s="6"/>
+      <c r="F319" s="6"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="6"/>
+      <c r="I319" s="6"/>
+      <c r="J319" s="6"/>
+      <c r="K319" s="6"/>
+      <c r="L319" s="6"/>
+      <c r="M319" s="6"/>
+      <c r="N319" s="6"/>
+      <c r="O319" s="6"/>
+      <c r="P319" s="6"/>
+      <c r="Q319" s="6"/>
+    </row>
+    <row r="320">
+      <c r="E320" s="6"/>
+      <c r="F320" s="6"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="6"/>
+      <c r="I320" s="6"/>
+      <c r="J320" s="6"/>
+      <c r="K320" s="6"/>
+      <c r="L320" s="6"/>
+      <c r="M320" s="6"/>
+      <c r="N320" s="6"/>
+      <c r="O320" s="6"/>
+      <c r="P320" s="6"/>
+      <c r="Q320" s="6"/>
+    </row>
+    <row r="321">
+      <c r="E321" s="6"/>
+      <c r="F321" s="6"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="6"/>
+      <c r="I321" s="6"/>
+      <c r="J321" s="6"/>
+      <c r="K321" s="6"/>
+      <c r="L321" s="6"/>
+      <c r="M321" s="6"/>
+      <c r="N321" s="6"/>
+      <c r="O321" s="6"/>
+      <c r="P321" s="6"/>
+      <c r="Q321" s="6"/>
+    </row>
+    <row r="322">
+      <c r="E322" s="6"/>
+      <c r="F322" s="6"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="6"/>
+      <c r="I322" s="6"/>
+      <c r="J322" s="6"/>
+      <c r="K322" s="6"/>
+      <c r="L322" s="6"/>
+      <c r="M322" s="6"/>
+      <c r="N322" s="6"/>
+      <c r="O322" s="6"/>
+      <c r="P322" s="6"/>
+      <c r="Q322" s="6"/>
+    </row>
+    <row r="323">
+      <c r="E323" s="6"/>
+      <c r="F323" s="6"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="6"/>
+      <c r="I323" s="6"/>
+      <c r="J323" s="6"/>
+      <c r="K323" s="6"/>
+      <c r="L323" s="6"/>
+      <c r="M323" s="6"/>
+      <c r="N323" s="6"/>
+      <c r="O323" s="6"/>
+      <c r="P323" s="6"/>
+      <c r="Q323" s="6"/>
+    </row>
+    <row r="324">
+      <c r="E324" s="6"/>
+      <c r="F324" s="6"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="6"/>
+      <c r="I324" s="6"/>
+      <c r="J324" s="6"/>
+      <c r="K324" s="6"/>
+      <c r="L324" s="6"/>
+      <c r="M324" s="6"/>
+      <c r="N324" s="6"/>
+      <c r="O324" s="6"/>
+      <c r="P324" s="6"/>
+      <c r="Q324" s="6"/>
+    </row>
+    <row r="325">
+      <c r="E325" s="6"/>
+      <c r="F325" s="6"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="6"/>
+      <c r="I325" s="6"/>
+      <c r="J325" s="6"/>
+      <c r="K325" s="6"/>
+      <c r="L325" s="6"/>
+      <c r="M325" s="6"/>
+      <c r="N325" s="6"/>
+      <c r="O325" s="6"/>
+      <c r="P325" s="6"/>
+      <c r="Q325" s="6"/>
+    </row>
+    <row r="326">
+      <c r="E326" s="6"/>
+      <c r="F326" s="6"/>
+      <c r="G326" s="6"/>
+      <c r="H326" s="6"/>
+      <c r="I326" s="6"/>
+      <c r="J326" s="6"/>
+      <c r="K326" s="6"/>
+      <c r="L326" s="6"/>
+      <c r="M326" s="6"/>
+      <c r="N326" s="6"/>
+      <c r="O326" s="6"/>
+      <c r="P326" s="6"/>
+      <c r="Q326" s="6"/>
+    </row>
+    <row r="327">
+      <c r="E327" s="6"/>
+      <c r="F327" s="6"/>
+      <c r="G327" s="6"/>
+      <c r="H327" s="6"/>
+      <c r="I327" s="6"/>
+      <c r="J327" s="6"/>
+      <c r="K327" s="6"/>
+      <c r="L327" s="6"/>
+      <c r="M327" s="6"/>
+      <c r="N327" s="6"/>
+      <c r="O327" s="6"/>
+      <c r="P327" s="6"/>
+      <c r="Q327" s="6"/>
+    </row>
+    <row r="328">
+      <c r="E328" s="6"/>
+      <c r="F328" s="6"/>
+      <c r="G328" s="6"/>
+      <c r="H328" s="6"/>
+      <c r="I328" s="6"/>
+      <c r="J328" s="6"/>
+      <c r="K328" s="6"/>
+      <c r="L328" s="6"/>
+      <c r="M328" s="6"/>
+      <c r="N328" s="6"/>
+      <c r="O328" s="6"/>
+      <c r="P328" s="6"/>
+      <c r="Q328" s="6"/>
+    </row>
+    <row r="329">
+      <c r="E329" s="6"/>
+      <c r="F329" s="6"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="6"/>
+      <c r="I329" s="6"/>
+      <c r="J329" s="6"/>
+      <c r="K329" s="6"/>
+      <c r="L329" s="6"/>
+      <c r="M329" s="6"/>
+      <c r="N329" s="6"/>
+      <c r="O329" s="6"/>
+      <c r="P329" s="6"/>
+      <c r="Q329" s="6"/>
+    </row>
+    <row r="330">
+      <c r="E330" s="6"/>
+      <c r="F330" s="6"/>
+      <c r="G330" s="6"/>
+      <c r="H330" s="6"/>
+      <c r="I330" s="6"/>
+      <c r="J330" s="6"/>
+      <c r="K330" s="6"/>
+      <c r="L330" s="6"/>
+      <c r="M330" s="6"/>
+      <c r="N330" s="6"/>
+      <c r="O330" s="6"/>
+      <c r="P330" s="6"/>
+      <c r="Q330" s="6"/>
+    </row>
+    <row r="331">
+      <c r="E331" s="6"/>
+      <c r="F331" s="6"/>
+      <c r="G331" s="6"/>
+      <c r="H331" s="6"/>
+      <c r="I331" s="6"/>
+      <c r="J331" s="6"/>
+      <c r="K331" s="6"/>
+      <c r="L331" s="6"/>
+      <c r="M331" s="6"/>
+      <c r="N331" s="6"/>
+      <c r="O331" s="6"/>
+      <c r="P331" s="6"/>
+      <c r="Q331" s="6"/>
+    </row>
+    <row r="332">
+      <c r="E332" s="6"/>
+      <c r="F332" s="6"/>
+      <c r="G332" s="6"/>
+      <c r="H332" s="6"/>
+      <c r="I332" s="6"/>
+      <c r="J332" s="6"/>
+      <c r="K332" s="6"/>
+      <c r="L332" s="6"/>
+      <c r="M332" s="6"/>
+      <c r="N332" s="6"/>
+      <c r="O332" s="6"/>
+      <c r="P332" s="6"/>
+      <c r="Q332" s="6"/>
+    </row>
+    <row r="333">
+      <c r="E333" s="6"/>
+      <c r="F333" s="6"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="6"/>
+      <c r="I333" s="6"/>
+      <c r="J333" s="6"/>
+      <c r="K333" s="6"/>
+      <c r="L333" s="6"/>
+      <c r="M333" s="6"/>
+      <c r="N333" s="6"/>
+      <c r="O333" s="6"/>
+      <c r="P333" s="6"/>
+      <c r="Q333" s="6"/>
+    </row>
+    <row r="334">
+      <c r="E334" s="6"/>
+      <c r="F334" s="6"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="6"/>
+      <c r="I334" s="6"/>
+      <c r="J334" s="6"/>
+      <c r="K334" s="6"/>
+      <c r="L334" s="6"/>
+      <c r="M334" s="6"/>
+      <c r="N334" s="6"/>
+      <c r="O334" s="6"/>
+      <c r="P334" s="6"/>
+      <c r="Q334" s="6"/>
+    </row>
+    <row r="335">
+      <c r="E335" s="6"/>
+      <c r="F335" s="6"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="6"/>
+      <c r="I335" s="6"/>
+      <c r="J335" s="6"/>
+      <c r="K335" s="6"/>
+      <c r="L335" s="6"/>
+      <c r="M335" s="6"/>
+      <c r="N335" s="6"/>
+      <c r="O335" s="6"/>
+      <c r="P335" s="6"/>
+      <c r="Q335" s="6"/>
+    </row>
+    <row r="336">
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="6"/>
+      <c r="K336" s="6"/>
+      <c r="L336" s="6"/>
+      <c r="M336" s="6"/>
+      <c r="N336" s="6"/>
+      <c r="O336" s="6"/>
+      <c r="P336" s="6"/>
+      <c r="Q336" s="6"/>
+    </row>
+    <row r="337">
+      <c r="E337" s="6"/>
+      <c r="F337" s="6"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="6"/>
+      <c r="I337" s="6"/>
+      <c r="J337" s="6"/>
+      <c r="K337" s="6"/>
+      <c r="L337" s="6"/>
+      <c r="M337" s="6"/>
+      <c r="N337" s="6"/>
+      <c r="O337" s="6"/>
+      <c r="P337" s="6"/>
+      <c r="Q337" s="6"/>
+    </row>
+    <row r="338">
+      <c r="E338" s="6"/>
+      <c r="F338" s="6"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="6"/>
+      <c r="I338" s="6"/>
+      <c r="J338" s="6"/>
+      <c r="K338" s="6"/>
+      <c r="L338" s="6"/>
+      <c r="M338" s="6"/>
+      <c r="N338" s="6"/>
+      <c r="O338" s="6"/>
+      <c r="P338" s="6"/>
+      <c r="Q338" s="6"/>
+    </row>
+    <row r="339">
+      <c r="E339" s="6"/>
+      <c r="F339" s="6"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="6"/>
+      <c r="I339" s="6"/>
+      <c r="J339" s="6"/>
+      <c r="K339" s="6"/>
+      <c r="L339" s="6"/>
+      <c r="M339" s="6"/>
+      <c r="N339" s="6"/>
+      <c r="O339" s="6"/>
+      <c r="P339" s="6"/>
+      <c r="Q339" s="6"/>
+    </row>
+    <row r="340">
+      <c r="E340" s="6"/>
+      <c r="F340" s="6"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="6"/>
+      <c r="I340" s="6"/>
+      <c r="J340" s="6"/>
+      <c r="K340" s="6"/>
+      <c r="L340" s="6"/>
+      <c r="M340" s="6"/>
+      <c r="N340" s="6"/>
+      <c r="O340" s="6"/>
+      <c r="P340" s="6"/>
+      <c r="Q340" s="6"/>
+    </row>
+    <row r="341">
+      <c r="E341" s="6"/>
+      <c r="F341" s="6"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="6"/>
+      <c r="I341" s="6"/>
+      <c r="J341" s="6"/>
+      <c r="K341" s="6"/>
+      <c r="L341" s="6"/>
+      <c r="M341" s="6"/>
+      <c r="N341" s="6"/>
+      <c r="O341" s="6"/>
+      <c r="P341" s="6"/>
+      <c r="Q341" s="6"/>
+    </row>
+    <row r="342">
+      <c r="E342" s="6"/>
+      <c r="F342" s="6"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="6"/>
+      <c r="I342" s="6"/>
+      <c r="J342" s="6"/>
+      <c r="K342" s="6"/>
+      <c r="L342" s="6"/>
+      <c r="M342" s="6"/>
+      <c r="N342" s="6"/>
+      <c r="O342" s="6"/>
+      <c r="P342" s="6"/>
+      <c r="Q342" s="6"/>
+    </row>
+    <row r="343">
+      <c r="E343" s="6"/>
+      <c r="F343" s="6"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="6"/>
+      <c r="I343" s="6"/>
+      <c r="J343" s="6"/>
+      <c r="K343" s="6"/>
+      <c r="L343" s="6"/>
+      <c r="M343" s="6"/>
+      <c r="N343" s="6"/>
+      <c r="O343" s="6"/>
+      <c r="P343" s="6"/>
+      <c r="Q343" s="6"/>
+    </row>
+    <row r="344">
+      <c r="E344" s="6"/>
+      <c r="F344" s="6"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="6"/>
+      <c r="I344" s="6"/>
+      <c r="J344" s="6"/>
+      <c r="K344" s="6"/>
+      <c r="L344" s="6"/>
+      <c r="M344" s="6"/>
+      <c r="N344" s="6"/>
+      <c r="O344" s="6"/>
+      <c r="P344" s="6"/>
+      <c r="Q344" s="6"/>
+    </row>
+    <row r="345">
+      <c r="E345" s="6"/>
+      <c r="F345" s="6"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="6"/>
+      <c r="I345" s="6"/>
+      <c r="J345" s="6"/>
+      <c r="K345" s="6"/>
+      <c r="L345" s="6"/>
+      <c r="M345" s="6"/>
+      <c r="N345" s="6"/>
+      <c r="O345" s="6"/>
+      <c r="P345" s="6"/>
+      <c r="Q345" s="6"/>
+    </row>
+    <row r="346">
+      <c r="E346" s="6"/>
+      <c r="F346" s="6"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="6"/>
+      <c r="I346" s="6"/>
+      <c r="J346" s="6"/>
+      <c r="K346" s="6"/>
+      <c r="L346" s="6"/>
+      <c r="M346" s="6"/>
+      <c r="N346" s="6"/>
+      <c r="O346" s="6"/>
+      <c r="P346" s="6"/>
+      <c r="Q346" s="6"/>
+    </row>
+    <row r="347">
+      <c r="E347" s="6"/>
+      <c r="F347" s="6"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="6"/>
+      <c r="I347" s="6"/>
+      <c r="J347" s="6"/>
+      <c r="K347" s="6"/>
+      <c r="L347" s="6"/>
+      <c r="M347" s="6"/>
+      <c r="N347" s="6"/>
+      <c r="O347" s="6"/>
+      <c r="P347" s="6"/>
+      <c r="Q347" s="6"/>
+    </row>
+    <row r="348">
+      <c r="E348" s="6"/>
+      <c r="F348" s="6"/>
+      <c r="G348" s="6"/>
+      <c r="H348" s="6"/>
+      <c r="I348" s="6"/>
+      <c r="J348" s="6"/>
+      <c r="K348" s="6"/>
+      <c r="L348" s="6"/>
+      <c r="M348" s="6"/>
+      <c r="N348" s="6"/>
+      <c r="O348" s="6"/>
+      <c r="P348" s="6"/>
+      <c r="Q348" s="6"/>
+    </row>
+    <row r="349">
+      <c r="E349" s="6"/>
+      <c r="F349" s="6"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="6"/>
+      <c r="I349" s="6"/>
+      <c r="J349" s="6"/>
+      <c r="K349" s="6"/>
+      <c r="L349" s="6"/>
+      <c r="M349" s="6"/>
+      <c r="N349" s="6"/>
+      <c r="O349" s="6"/>
+      <c r="P349" s="6"/>
+      <c r="Q349" s="6"/>
+    </row>
+    <row r="350">
+      <c r="E350" s="6"/>
+      <c r="F350" s="6"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="6"/>
+      <c r="I350" s="6"/>
+      <c r="J350" s="6"/>
+      <c r="K350" s="6"/>
+      <c r="L350" s="6"/>
+      <c r="M350" s="6"/>
+      <c r="N350" s="6"/>
+      <c r="O350" s="6"/>
+      <c r="P350" s="6"/>
+      <c r="Q350" s="6"/>
+    </row>
+    <row r="351">
+      <c r="E351" s="6"/>
+      <c r="F351" s="6"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="6"/>
+      <c r="I351" s="6"/>
+      <c r="J351" s="6"/>
+      <c r="K351" s="6"/>
+      <c r="L351" s="6"/>
+      <c r="M351" s="6"/>
+      <c r="N351" s="6"/>
+      <c r="O351" s="6"/>
+      <c r="P351" s="6"/>
+      <c r="Q351" s="6"/>
+    </row>
+    <row r="352">
+      <c r="E352" s="6"/>
+      <c r="F352" s="6"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="6"/>
+      <c r="I352" s="6"/>
+      <c r="J352" s="6"/>
+      <c r="K352" s="6"/>
+      <c r="L352" s="6"/>
+      <c r="M352" s="6"/>
+      <c r="N352" s="6"/>
+      <c r="O352" s="6"/>
+      <c r="P352" s="6"/>
+      <c r="Q352" s="6"/>
+    </row>
+    <row r="353">
+      <c r="E353" s="6"/>
+      <c r="F353" s="6"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="6"/>
+      <c r="I353" s="6"/>
+      <c r="J353" s="6"/>
+      <c r="K353" s="6"/>
+      <c r="L353" s="6"/>
+      <c r="M353" s="6"/>
+      <c r="N353" s="6"/>
+      <c r="O353" s="6"/>
+      <c r="P353" s="6"/>
+      <c r="Q353" s="6"/>
+    </row>
+    <row r="354">
+      <c r="E354" s="6"/>
+      <c r="F354" s="6"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="6"/>
+      <c r="I354" s="6"/>
+      <c r="J354" s="6"/>
+      <c r="K354" s="6"/>
+      <c r="L354" s="6"/>
+      <c r="M354" s="6"/>
+      <c r="N354" s="6"/>
+      <c r="O354" s="6"/>
+      <c r="P354" s="6"/>
+      <c r="Q354" s="6"/>
+    </row>
+    <row r="355">
+      <c r="E355" s="6"/>
+      <c r="F355" s="6"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="6"/>
+      <c r="I355" s="6"/>
+      <c r="J355" s="6"/>
+      <c r="K355" s="6"/>
+      <c r="L355" s="6"/>
+      <c r="M355" s="6"/>
+      <c r="N355" s="6"/>
+      <c r="O355" s="6"/>
+      <c r="P355" s="6"/>
+      <c r="Q355" s="6"/>
+    </row>
+    <row r="356">
+      <c r="E356" s="6"/>
+      <c r="F356" s="6"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="6"/>
+      <c r="I356" s="6"/>
+      <c r="J356" s="6"/>
+      <c r="K356" s="6"/>
+      <c r="L356" s="6"/>
+      <c r="M356" s="6"/>
+      <c r="N356" s="6"/>
+      <c r="O356" s="6"/>
+      <c r="P356" s="6"/>
+      <c r="Q356" s="6"/>
+    </row>
+    <row r="357">
+      <c r="E357" s="6"/>
+      <c r="F357" s="6"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="6"/>
+      <c r="I357" s="6"/>
+      <c r="J357" s="6"/>
+      <c r="K357" s="6"/>
+      <c r="L357" s="6"/>
+      <c r="M357" s="6"/>
+      <c r="N357" s="6"/>
+      <c r="O357" s="6"/>
+      <c r="P357" s="6"/>
+      <c r="Q357" s="6"/>
+    </row>
+    <row r="358">
+      <c r="E358" s="6"/>
+      <c r="F358" s="6"/>
+      <c r="G358" s="6"/>
+      <c r="H358" s="6"/>
+      <c r="I358" s="6"/>
+      <c r="J358" s="6"/>
+      <c r="K358" s="6"/>
+      <c r="L358" s="6"/>
+      <c r="M358" s="6"/>
+      <c r="N358" s="6"/>
+      <c r="O358" s="6"/>
+      <c r="P358" s="6"/>
+      <c r="Q358" s="6"/>
+    </row>
+    <row r="359">
+      <c r="E359" s="6"/>
+      <c r="F359" s="6"/>
+      <c r="G359" s="6"/>
+      <c r="H359" s="6"/>
+      <c r="I359" s="6"/>
+      <c r="J359" s="6"/>
+      <c r="K359" s="6"/>
+      <c r="L359" s="6"/>
+      <c r="M359" s="6"/>
+      <c r="N359" s="6"/>
+      <c r="O359" s="6"/>
+      <c r="P359" s="6"/>
+      <c r="Q359" s="6"/>
+    </row>
+    <row r="360">
+      <c r="E360" s="6"/>
+      <c r="F360" s="6"/>
+      <c r="G360" s="6"/>
+      <c r="H360" s="6"/>
+      <c r="I360" s="6"/>
+      <c r="J360" s="6"/>
+      <c r="K360" s="6"/>
+      <c r="L360" s="6"/>
+      <c r="M360" s="6"/>
+      <c r="N360" s="6"/>
+      <c r="O360" s="6"/>
+      <c r="P360" s="6"/>
+      <c r="Q360" s="6"/>
+    </row>
+    <row r="361">
+      <c r="E361" s="6"/>
+      <c r="F361" s="6"/>
+      <c r="G361" s="6"/>
+      <c r="H361" s="6"/>
+      <c r="I361" s="6"/>
+      <c r="J361" s="6"/>
+      <c r="K361" s="6"/>
+      <c r="L361" s="6"/>
+      <c r="M361" s="6"/>
+      <c r="N361" s="6"/>
+      <c r="O361" s="6"/>
+      <c r="P361" s="6"/>
+      <c r="Q361" s="6"/>
+    </row>
+    <row r="362">
+      <c r="E362" s="6"/>
+      <c r="F362" s="6"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="6"/>
+      <c r="I362" s="6"/>
+      <c r="J362" s="6"/>
+      <c r="K362" s="6"/>
+      <c r="L362" s="6"/>
+      <c r="M362" s="6"/>
+      <c r="N362" s="6"/>
+      <c r="O362" s="6"/>
+      <c r="P362" s="6"/>
+      <c r="Q362" s="6"/>
+    </row>
+    <row r="363">
+      <c r="E363" s="6"/>
+      <c r="F363" s="6"/>
+      <c r="G363" s="6"/>
+      <c r="H363" s="6"/>
+      <c r="I363" s="6"/>
+      <c r="J363" s="6"/>
+      <c r="K363" s="6"/>
+      <c r="L363" s="6"/>
+      <c r="M363" s="6"/>
+      <c r="N363" s="6"/>
+      <c r="O363" s="6"/>
+      <c r="P363" s="6"/>
+      <c r="Q363" s="6"/>
+    </row>
+    <row r="364">
+      <c r="E364" s="6"/>
+      <c r="F364" s="6"/>
+      <c r="G364" s="6"/>
+      <c r="H364" s="6"/>
+      <c r="I364" s="6"/>
+      <c r="J364" s="6"/>
+      <c r="K364" s="6"/>
+      <c r="L364" s="6"/>
+      <c r="M364" s="6"/>
+      <c r="N364" s="6"/>
+      <c r="O364" s="6"/>
+      <c r="P364" s="6"/>
+      <c r="Q364" s="6"/>
+    </row>
+    <row r="365">
+      <c r="E365" s="6"/>
+      <c r="F365" s="6"/>
+      <c r="G365" s="6"/>
+      <c r="H365" s="6"/>
+      <c r="I365" s="6"/>
+      <c r="J365" s="6"/>
+      <c r="K365" s="6"/>
+      <c r="L365" s="6"/>
+      <c r="M365" s="6"/>
+      <c r="N365" s="6"/>
+      <c r="O365" s="6"/>
+      <c r="P365" s="6"/>
+      <c r="Q365" s="6"/>
+    </row>
+    <row r="366">
+      <c r="E366" s="6"/>
+      <c r="F366" s="6"/>
+      <c r="G366" s="6"/>
+      <c r="H366" s="6"/>
+      <c r="I366" s="6"/>
+      <c r="J366" s="6"/>
+      <c r="K366" s="6"/>
+      <c r="L366" s="6"/>
+      <c r="M366" s="6"/>
+      <c r="N366" s="6"/>
+      <c r="O366" s="6"/>
+      <c r="P366" s="6"/>
+      <c r="Q366" s="6"/>
+    </row>
+    <row r="367">
+      <c r="E367" s="6"/>
+      <c r="F367" s="6"/>
+      <c r="G367" s="6"/>
+      <c r="H367" s="6"/>
+      <c r="I367" s="6"/>
+      <c r="J367" s="6"/>
+      <c r="K367" s="6"/>
+      <c r="L367" s="6"/>
+      <c r="M367" s="6"/>
+      <c r="N367" s="6"/>
+      <c r="O367" s="6"/>
+      <c r="P367" s="6"/>
+      <c r="Q367" s="6"/>
+    </row>
+    <row r="368">
+      <c r="E368" s="6"/>
+      <c r="F368" s="6"/>
+      <c r="G368" s="6"/>
+      <c r="H368" s="6"/>
+      <c r="I368" s="6"/>
+      <c r="J368" s="6"/>
+      <c r="K368" s="6"/>
+      <c r="L368" s="6"/>
+      <c r="M368" s="6"/>
+      <c r="N368" s="6"/>
+      <c r="O368" s="6"/>
+      <c r="P368" s="6"/>
+      <c r="Q368" s="6"/>
+    </row>
+    <row r="369">
+      <c r="E369" s="6"/>
+      <c r="F369" s="6"/>
+      <c r="G369" s="6"/>
+      <c r="H369" s="6"/>
+      <c r="I369" s="6"/>
+      <c r="J369" s="6"/>
+      <c r="K369" s="6"/>
+      <c r="L369" s="6"/>
+      <c r="M369" s="6"/>
+      <c r="N369" s="6"/>
+      <c r="O369" s="6"/>
+      <c r="P369" s="6"/>
+      <c r="Q369" s="6"/>
+    </row>
+    <row r="370">
+      <c r="E370" s="6"/>
+      <c r="F370" s="6"/>
+      <c r="G370" s="6"/>
+      <c r="H370" s="6"/>
+      <c r="I370" s="6"/>
+      <c r="J370" s="6"/>
+      <c r="K370" s="6"/>
+      <c r="L370" s="6"/>
+      <c r="M370" s="6"/>
+      <c r="N370" s="6"/>
+      <c r="O370" s="6"/>
+      <c r="P370" s="6"/>
+      <c r="Q370" s="6"/>
+    </row>
+    <row r="371">
+      <c r="E371" s="6"/>
+      <c r="F371" s="6"/>
+      <c r="G371" s="6"/>
+      <c r="H371" s="6"/>
+      <c r="I371" s="6"/>
+      <c r="J371" s="6"/>
+      <c r="K371" s="6"/>
+      <c r="L371" s="6"/>
+      <c r="M371" s="6"/>
+      <c r="N371" s="6"/>
+      <c r="O371" s="6"/>
+      <c r="P371" s="6"/>
+      <c r="Q371" s="6"/>
+    </row>
+    <row r="372">
+      <c r="E372" s="6"/>
+      <c r="F372" s="6"/>
+      <c r="G372" s="6"/>
+      <c r="H372" s="6"/>
+      <c r="I372" s="6"/>
+      <c r="J372" s="6"/>
+      <c r="K372" s="6"/>
+      <c r="L372" s="6"/>
+      <c r="M372" s="6"/>
+      <c r="N372" s="6"/>
+      <c r="O372" s="6"/>
+      <c r="P372" s="6"/>
+      <c r="Q372" s="6"/>
+    </row>
+    <row r="373">
+      <c r="E373" s="6"/>
+      <c r="F373" s="6"/>
+      <c r="G373" s="6"/>
+      <c r="H373" s="6"/>
+      <c r="I373" s="6"/>
+      <c r="J373" s="6"/>
+      <c r="K373" s="6"/>
+      <c r="L373" s="6"/>
+      <c r="M373" s="6"/>
+      <c r="N373" s="6"/>
+      <c r="O373" s="6"/>
+      <c r="P373" s="6"/>
+      <c r="Q373" s="6"/>
+    </row>
+    <row r="374">
+      <c r="E374" s="6"/>
+      <c r="F374" s="6"/>
+      <c r="G374" s="6"/>
+      <c r="H374" s="6"/>
+      <c r="I374" s="6"/>
+      <c r="J374" s="6"/>
+      <c r="K374" s="6"/>
+      <c r="L374" s="6"/>
+      <c r="M374" s="6"/>
+      <c r="N374" s="6"/>
+      <c r="O374" s="6"/>
+      <c r="P374" s="6"/>
+      <c r="Q374" s="6"/>
+    </row>
+    <row r="375">
+      <c r="E375" s="6"/>
+      <c r="F375" s="6"/>
+      <c r="G375" s="6"/>
+      <c r="H375" s="6"/>
+      <c r="I375" s="6"/>
+      <c r="J375" s="6"/>
+      <c r="K375" s="6"/>
+      <c r="L375" s="6"/>
+      <c r="M375" s="6"/>
+      <c r="N375" s="6"/>
+      <c r="O375" s="6"/>
+      <c r="P375" s="6"/>
+      <c r="Q375" s="6"/>
+    </row>
+    <row r="376">
+      <c r="E376" s="6"/>
+      <c r="F376" s="6"/>
+      <c r="G376" s="6"/>
+      <c r="H376" s="6"/>
+      <c r="I376" s="6"/>
+      <c r="J376" s="6"/>
+      <c r="K376" s="6"/>
+      <c r="L376" s="6"/>
+      <c r="M376" s="6"/>
+      <c r="N376" s="6"/>
+      <c r="O376" s="6"/>
+      <c r="P376" s="6"/>
+      <c r="Q376" s="6"/>
+    </row>
+    <row r="377">
+      <c r="E377" s="6"/>
+      <c r="F377" s="6"/>
+      <c r="G377" s="6"/>
+      <c r="H377" s="6"/>
+      <c r="I377" s="6"/>
+      <c r="J377" s="6"/>
+      <c r="K377" s="6"/>
+      <c r="L377" s="6"/>
+      <c r="M377" s="6"/>
+      <c r="N377" s="6"/>
+      <c r="O377" s="6"/>
+      <c r="P377" s="6"/>
+      <c r="Q377" s="6"/>
+    </row>
+    <row r="378">
+      <c r="E378" s="6"/>
+      <c r="F378" s="6"/>
+      <c r="G378" s="6"/>
+      <c r="H378" s="6"/>
+      <c r="I378" s="6"/>
+      <c r="J378" s="6"/>
+      <c r="K378" s="6"/>
+      <c r="L378" s="6"/>
+      <c r="M378" s="6"/>
+      <c r="N378" s="6"/>
+      <c r="O378" s="6"/>
+      <c r="P378" s="6"/>
+      <c r="Q378" s="6"/>
+    </row>
+    <row r="379">
+      <c r="E379" s="6"/>
+      <c r="F379" s="6"/>
+      <c r="G379" s="6"/>
+      <c r="H379" s="6"/>
+      <c r="I379" s="6"/>
+      <c r="J379" s="6"/>
+      <c r="K379" s="6"/>
+      <c r="L379" s="6"/>
+      <c r="M379" s="6"/>
+      <c r="N379" s="6"/>
+      <c r="O379" s="6"/>
+      <c r="P379" s="6"/>
+      <c r="Q379" s="6"/>
+    </row>
+    <row r="380">
+      <c r="E380" s="6"/>
+      <c r="F380" s="6"/>
+      <c r="G380" s="6"/>
+      <c r="H380" s="6"/>
+      <c r="I380" s="6"/>
+      <c r="J380" s="6"/>
+      <c r="K380" s="6"/>
+      <c r="L380" s="6"/>
+      <c r="M380" s="6"/>
+      <c r="N380" s="6"/>
+      <c r="O380" s="6"/>
+      <c r="P380" s="6"/>
+      <c r="Q380" s="6"/>
+    </row>
+    <row r="381">
+      <c r="E381" s="6"/>
+      <c r="F381" s="6"/>
+      <c r="G381" s="6"/>
+      <c r="H381" s="6"/>
+      <c r="I381" s="6"/>
+      <c r="J381" s="6"/>
+      <c r="K381" s="6"/>
+      <c r="L381" s="6"/>
+      <c r="M381" s="6"/>
+      <c r="N381" s="6"/>
+      <c r="O381" s="6"/>
+      <c r="P381" s="6"/>
+      <c r="Q381" s="6"/>
+    </row>
+    <row r="382">
+      <c r="E382" s="6"/>
+      <c r="F382" s="6"/>
+      <c r="G382" s="6"/>
+      <c r="H382" s="6"/>
+      <c r="I382" s="6"/>
+      <c r="J382" s="6"/>
+      <c r="K382" s="6"/>
+      <c r="L382" s="6"/>
+      <c r="M382" s="6"/>
+      <c r="N382" s="6"/>
+      <c r="O382" s="6"/>
+      <c r="P382" s="6"/>
+      <c r="Q382" s="6"/>
+    </row>
+    <row r="383">
+      <c r="E383" s="6"/>
+      <c r="F383" s="6"/>
+      <c r="G383" s="6"/>
+      <c r="H383" s="6"/>
+      <c r="I383" s="6"/>
+      <c r="J383" s="6"/>
+      <c r="K383" s="6"/>
+      <c r="L383" s="6"/>
+      <c r="M383" s="6"/>
+      <c r="N383" s="6"/>
+      <c r="O383" s="6"/>
+      <c r="P383" s="6"/>
+      <c r="Q383" s="6"/>
+    </row>
+    <row r="384">
+      <c r="E384" s="6"/>
+      <c r="F384" s="6"/>
+      <c r="G384" s="6"/>
+      <c r="H384" s="6"/>
+      <c r="I384" s="6"/>
+      <c r="J384" s="6"/>
+      <c r="K384" s="6"/>
+      <c r="L384" s="6"/>
+      <c r="M384" s="6"/>
+      <c r="N384" s="6"/>
+      <c r="O384" s="6"/>
+      <c r="P384" s="6"/>
+      <c r="Q384" s="6"/>
+    </row>
+    <row r="385">
+      <c r="E385" s="6"/>
+      <c r="F385" s="6"/>
+      <c r="G385" s="6"/>
+      <c r="H385" s="6"/>
+      <c r="I385" s="6"/>
+      <c r="J385" s="6"/>
+      <c r="K385" s="6"/>
+      <c r="L385" s="6"/>
+      <c r="M385" s="6"/>
+      <c r="N385" s="6"/>
+      <c r="O385" s="6"/>
+      <c r="P385" s="6"/>
+      <c r="Q385" s="6"/>
+    </row>
+    <row r="386">
+      <c r="E386" s="6"/>
+      <c r="F386" s="6"/>
+      <c r="G386" s="6"/>
+      <c r="H386" s="6"/>
+      <c r="I386" s="6"/>
+      <c r="J386" s="6"/>
+      <c r="K386" s="6"/>
+      <c r="L386" s="6"/>
+      <c r="M386" s="6"/>
+      <c r="N386" s="6"/>
+      <c r="O386" s="6"/>
+      <c r="P386" s="6"/>
+      <c r="Q386" s="6"/>
+    </row>
+    <row r="387">
+      <c r="E387" s="6"/>
+      <c r="F387" s="6"/>
+      <c r="G387" s="6"/>
+      <c r="H387" s="6"/>
+      <c r="I387" s="6"/>
+      <c r="J387" s="6"/>
+      <c r="K387" s="6"/>
+      <c r="L387" s="6"/>
+      <c r="M387" s="6"/>
+      <c r="N387" s="6"/>
+      <c r="O387" s="6"/>
+      <c r="P387" s="6"/>
+      <c r="Q387" s="6"/>
+    </row>
+    <row r="388">
+      <c r="E388" s="6"/>
+      <c r="F388" s="6"/>
+      <c r="G388" s="6"/>
+      <c r="H388" s="6"/>
+      <c r="I388" s="6"/>
+      <c r="J388" s="6"/>
+      <c r="K388" s="6"/>
+      <c r="L388" s="6"/>
+      <c r="M388" s="6"/>
+      <c r="N388" s="6"/>
+      <c r="O388" s="6"/>
+      <c r="P388" s="6"/>
+      <c r="Q388" s="6"/>
+    </row>
+    <row r="389">
+      <c r="E389" s="6"/>
+      <c r="F389" s="6"/>
+      <c r="G389" s="6"/>
+      <c r="H389" s="6"/>
+      <c r="I389" s="6"/>
+      <c r="J389" s="6"/>
+      <c r="K389" s="6"/>
+      <c r="L389" s="6"/>
+      <c r="M389" s="6"/>
+      <c r="N389" s="6"/>
+      <c r="O389" s="6"/>
+      <c r="P389" s="6"/>
+      <c r="Q389" s="6"/>
+    </row>
+    <row r="390">
+      <c r="E390" s="6"/>
+      <c r="F390" s="6"/>
+      <c r="G390" s="6"/>
+      <c r="H390" s="6"/>
+      <c r="I390" s="6"/>
+      <c r="J390" s="6"/>
+      <c r="K390" s="6"/>
+      <c r="L390" s="6"/>
+      <c r="M390" s="6"/>
+      <c r="N390" s="6"/>
+      <c r="O390" s="6"/>
+      <c r="P390" s="6"/>
+      <c r="Q390" s="6"/>
+    </row>
+    <row r="391">
+      <c r="E391" s="6"/>
+      <c r="F391" s="6"/>
+      <c r="G391" s="6"/>
+      <c r="H391" s="6"/>
+      <c r="I391" s="6"/>
+      <c r="J391" s="6"/>
+      <c r="K391" s="6"/>
+      <c r="L391" s="6"/>
+      <c r="M391" s="6"/>
+      <c r="N391" s="6"/>
+      <c r="O391" s="6"/>
+      <c r="P391" s="6"/>
+      <c r="Q391" s="6"/>
+    </row>
+    <row r="392">
+      <c r="E392" s="6"/>
+      <c r="F392" s="6"/>
+      <c r="G392" s="6"/>
+      <c r="H392" s="6"/>
+      <c r="I392" s="6"/>
+      <c r="J392" s="6"/>
+      <c r="K392" s="6"/>
+      <c r="L392" s="6"/>
+      <c r="M392" s="6"/>
+      <c r="N392" s="6"/>
+      <c r="O392" s="6"/>
+      <c r="P392" s="6"/>
+      <c r="Q392" s="6"/>
+    </row>
+    <row r="393">
+      <c r="E393" s="6"/>
+      <c r="F393" s="6"/>
+      <c r="G393" s="6"/>
+      <c r="H393" s="6"/>
+      <c r="I393" s="6"/>
+      <c r="J393" s="6"/>
+      <c r="K393" s="6"/>
+      <c r="L393" s="6"/>
+      <c r="M393" s="6"/>
+      <c r="N393" s="6"/>
+      <c r="O393" s="6"/>
+      <c r="P393" s="6"/>
+      <c r="Q393" s="6"/>
+    </row>
+    <row r="394">
+      <c r="E394" s="6"/>
+      <c r="F394" s="6"/>
+      <c r="G394" s="6"/>
+      <c r="H394" s="6"/>
+      <c r="I394" s="6"/>
+      <c r="J394" s="6"/>
+      <c r="K394" s="6"/>
+      <c r="L394" s="6"/>
+      <c r="M394" s="6"/>
+      <c r="N394" s="6"/>
+      <c r="O394" s="6"/>
+      <c r="P394" s="6"/>
+      <c r="Q394" s="6"/>
+    </row>
+    <row r="395">
+      <c r="E395" s="6"/>
+      <c r="F395" s="6"/>
+      <c r="G395" s="6"/>
+      <c r="H395" s="6"/>
+      <c r="I395" s="6"/>
+      <c r="J395" s="6"/>
+      <c r="K395" s="6"/>
+      <c r="L395" s="6"/>
+      <c r="M395" s="6"/>
+      <c r="N395" s="6"/>
+      <c r="O395" s="6"/>
+      <c r="P395" s="6"/>
+      <c r="Q395" s="6"/>
+    </row>
+    <row r="396">
+      <c r="E396" s="6"/>
+      <c r="F396" s="6"/>
+      <c r="G396" s="6"/>
+      <c r="H396" s="6"/>
+      <c r="I396" s="6"/>
+      <c r="J396" s="6"/>
+      <c r="K396" s="6"/>
+      <c r="L396" s="6"/>
+      <c r="M396" s="6"/>
+      <c r="N396" s="6"/>
+      <c r="O396" s="6"/>
+      <c r="P396" s="6"/>
+      <c r="Q396" s="6"/>
+    </row>
+    <row r="397">
+      <c r="E397" s="6"/>
+      <c r="F397" s="6"/>
+      <c r="G397" s="6"/>
+      <c r="H397" s="6"/>
+      <c r="I397" s="6"/>
+      <c r="J397" s="6"/>
+      <c r="K397" s="6"/>
+      <c r="L397" s="6"/>
+      <c r="M397" s="6"/>
+      <c r="N397" s="6"/>
+      <c r="O397" s="6"/>
+      <c r="P397" s="6"/>
+      <c r="Q397" s="6"/>
+    </row>
+    <row r="398">
+      <c r="E398" s="6"/>
+      <c r="F398" s="6"/>
+      <c r="G398" s="6"/>
+      <c r="H398" s="6"/>
+      <c r="I398" s="6"/>
+      <c r="J398" s="6"/>
+      <c r="K398" s="6"/>
+      <c r="L398" s="6"/>
+      <c r="M398" s="6"/>
+      <c r="N398" s="6"/>
+      <c r="O398" s="6"/>
+      <c r="P398" s="6"/>
+      <c r="Q398" s="6"/>
+    </row>
+    <row r="399">
+      <c r="E399" s="6"/>
+      <c r="F399" s="6"/>
+      <c r="G399" s="6"/>
+      <c r="H399" s="6"/>
+      <c r="I399" s="6"/>
+      <c r="J399" s="6"/>
+      <c r="K399" s="6"/>
+      <c r="L399" s="6"/>
+      <c r="M399" s="6"/>
+      <c r="N399" s="6"/>
+      <c r="O399" s="6"/>
+      <c r="P399" s="6"/>
+      <c r="Q399" s="6"/>
+    </row>
+    <row r="400">
+      <c r="E400" s="6"/>
+      <c r="F400" s="6"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="6"/>
+      <c r="I400" s="6"/>
+      <c r="J400" s="6"/>
+      <c r="K400" s="6"/>
+      <c r="L400" s="6"/>
+      <c r="M400" s="6"/>
+      <c r="N400" s="6"/>
+      <c r="O400" s="6"/>
+      <c r="P400" s="6"/>
+      <c r="Q400" s="6"/>
+    </row>
+    <row r="401">
+      <c r="E401" s="6"/>
+      <c r="F401" s="6"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="6"/>
+      <c r="I401" s="6"/>
+      <c r="J401" s="6"/>
+      <c r="K401" s="6"/>
+      <c r="L401" s="6"/>
+      <c r="M401" s="6"/>
+      <c r="N401" s="6"/>
+      <c r="O401" s="6"/>
+      <c r="P401" s="6"/>
+      <c r="Q401" s="6"/>
+    </row>
+    <row r="402">
+      <c r="E402" s="6"/>
+      <c r="F402" s="6"/>
+      <c r="G402" s="6"/>
+      <c r="H402" s="6"/>
+      <c r="I402" s="6"/>
+      <c r="J402" s="6"/>
+      <c r="K402" s="6"/>
+      <c r="L402" s="6"/>
+      <c r="M402" s="6"/>
+      <c r="N402" s="6"/>
+      <c r="O402" s="6"/>
+      <c r="P402" s="6"/>
+      <c r="Q402" s="6"/>
+    </row>
+    <row r="403">
+      <c r="E403" s="6"/>
+      <c r="F403" s="6"/>
+      <c r="G403" s="6"/>
+      <c r="H403" s="6"/>
+      <c r="I403" s="6"/>
+      <c r="J403" s="6"/>
+      <c r="K403" s="6"/>
+      <c r="L403" s="6"/>
+      <c r="M403" s="6"/>
+      <c r="N403" s="6"/>
+      <c r="O403" s="6"/>
+      <c r="P403" s="6"/>
+      <c r="Q403" s="6"/>
+    </row>
+    <row r="404">
+      <c r="E404" s="6"/>
+      <c r="F404" s="6"/>
+      <c r="G404" s="6"/>
+      <c r="H404" s="6"/>
+      <c r="I404" s="6"/>
+      <c r="J404" s="6"/>
+      <c r="K404" s="6"/>
+      <c r="L404" s="6"/>
+      <c r="M404" s="6"/>
+      <c r="N404" s="6"/>
+      <c r="O404" s="6"/>
+      <c r="P404" s="6"/>
+      <c r="Q404" s="6"/>
+    </row>
+    <row r="405">
+      <c r="E405" s="6"/>
+      <c r="F405" s="6"/>
+      <c r="G405" s="6"/>
+      <c r="H405" s="6"/>
+      <c r="I405" s="6"/>
+      <c r="J405" s="6"/>
+      <c r="K405" s="6"/>
+      <c r="L405" s="6"/>
+      <c r="M405" s="6"/>
+      <c r="N405" s="6"/>
+      <c r="O405" s="6"/>
+      <c r="P405" s="6"/>
+      <c r="Q405" s="6"/>
+    </row>
+    <row r="406">
+      <c r="E406" s="6"/>
+      <c r="F406" s="6"/>
+      <c r="G406" s="6"/>
+      <c r="H406" s="6"/>
+      <c r="I406" s="6"/>
+      <c r="J406" s="6"/>
+      <c r="K406" s="6"/>
+      <c r="L406" s="6"/>
+      <c r="M406" s="6"/>
+      <c r="N406" s="6"/>
+      <c r="O406" s="6"/>
+      <c r="P406" s="6"/>
+      <c r="Q406" s="6"/>
+    </row>
+    <row r="407">
+      <c r="E407" s="6"/>
+      <c r="F407" s="6"/>
+      <c r="G407" s="6"/>
+      <c r="H407" s="6"/>
+      <c r="I407" s="6"/>
+      <c r="J407" s="6"/>
+      <c r="K407" s="6"/>
+      <c r="L407" s="6"/>
+      <c r="M407" s="6"/>
+      <c r="N407" s="6"/>
+      <c r="O407" s="6"/>
+      <c r="P407" s="6"/>
+      <c r="Q407" s="6"/>
+    </row>
+    <row r="408">
+      <c r="E408" s="6"/>
+      <c r="F408" s="6"/>
+      <c r="G408" s="6"/>
+      <c r="H408" s="6"/>
+      <c r="I408" s="6"/>
+      <c r="J408" s="6"/>
+      <c r="K408" s="6"/>
+      <c r="L408" s="6"/>
+      <c r="M408" s="6"/>
+      <c r="N408" s="6"/>
+      <c r="O408" s="6"/>
+      <c r="P408" s="6"/>
+      <c r="Q408" s="6"/>
+    </row>
+    <row r="409">
+      <c r="E409" s="6"/>
+      <c r="F409" s="6"/>
+      <c r="G409" s="6"/>
+      <c r="H409" s="6"/>
+      <c r="I409" s="6"/>
+      <c r="J409" s="6"/>
+      <c r="K409" s="6"/>
+      <c r="L409" s="6"/>
+      <c r="M409" s="6"/>
+      <c r="N409" s="6"/>
+      <c r="O409" s="6"/>
+      <c r="P409" s="6"/>
+      <c r="Q409" s="6"/>
+    </row>
+    <row r="410">
+      <c r="E410" s="6"/>
+      <c r="F410" s="6"/>
+      <c r="G410" s="6"/>
+      <c r="H410" s="6"/>
+      <c r="I410" s="6"/>
+      <c r="J410" s="6"/>
+      <c r="K410" s="6"/>
+      <c r="L410" s="6"/>
+      <c r="M410" s="6"/>
+      <c r="N410" s="6"/>
+      <c r="O410" s="6"/>
+      <c r="P410" s="6"/>
+      <c r="Q410" s="6"/>
+    </row>
+    <row r="411">
+      <c r="E411" s="6"/>
+      <c r="F411" s="6"/>
+      <c r="G411" s="6"/>
+      <c r="H411" s="6"/>
+      <c r="I411" s="6"/>
+      <c r="J411" s="6"/>
+      <c r="K411" s="6"/>
+      <c r="L411" s="6"/>
+      <c r="M411" s="6"/>
+      <c r="N411" s="6"/>
+      <c r="O411" s="6"/>
+      <c r="P411" s="6"/>
+      <c r="Q411" s="6"/>
+    </row>
+    <row r="412">
+      <c r="E412" s="6"/>
+      <c r="F412" s="6"/>
+      <c r="G412" s="6"/>
+      <c r="H412" s="6"/>
+      <c r="I412" s="6"/>
+      <c r="J412" s="6"/>
+      <c r="K412" s="6"/>
+      <c r="L412" s="6"/>
+      <c r="M412" s="6"/>
+      <c r="N412" s="6"/>
+      <c r="O412" s="6"/>
+      <c r="P412" s="6"/>
+      <c r="Q412" s="6"/>
+    </row>
+    <row r="413">
+      <c r="E413" s="6"/>
+      <c r="F413" s="6"/>
+      <c r="G413" s="6"/>
+      <c r="H413" s="6"/>
+      <c r="I413" s="6"/>
+      <c r="J413" s="6"/>
+      <c r="K413" s="6"/>
+      <c r="L413" s="6"/>
+      <c r="M413" s="6"/>
+      <c r="N413" s="6"/>
+      <c r="O413" s="6"/>
+      <c r="P413" s="6"/>
+      <c r="Q413" s="6"/>
+    </row>
+    <row r="414">
+      <c r="E414" s="6"/>
+      <c r="F414" s="6"/>
+      <c r="G414" s="6"/>
+      <c r="H414" s="6"/>
+      <c r="I414" s="6"/>
+      <c r="J414" s="6"/>
+      <c r="K414" s="6"/>
+      <c r="L414" s="6"/>
+      <c r="M414" s="6"/>
+      <c r="N414" s="6"/>
+      <c r="O414" s="6"/>
+      <c r="P414" s="6"/>
+      <c r="Q414" s="6"/>
+    </row>
+    <row r="415">
+      <c r="E415" s="6"/>
+      <c r="F415" s="6"/>
+      <c r="G415" s="6"/>
+      <c r="H415" s="6"/>
+      <c r="I415" s="6"/>
+      <c r="J415" s="6"/>
+      <c r="K415" s="6"/>
+      <c r="L415" s="6"/>
+      <c r="M415" s="6"/>
+      <c r="N415" s="6"/>
+      <c r="O415" s="6"/>
+      <c r="P415" s="6"/>
+      <c r="Q415" s="6"/>
+    </row>
+    <row r="416">
+      <c r="E416" s="6"/>
+      <c r="F416" s="6"/>
+      <c r="G416" s="6"/>
+      <c r="H416" s="6"/>
+      <c r="I416" s="6"/>
+      <c r="J416" s="6"/>
+      <c r="K416" s="6"/>
+      <c r="L416" s="6"/>
+      <c r="M416" s="6"/>
+      <c r="N416" s="6"/>
+      <c r="O416" s="6"/>
+      <c r="P416" s="6"/>
+      <c r="Q416" s="6"/>
+    </row>
+    <row r="417">
+      <c r="E417" s="6"/>
+      <c r="F417" s="6"/>
+      <c r="G417" s="6"/>
+      <c r="H417" s="6"/>
+      <c r="I417" s="6"/>
+      <c r="J417" s="6"/>
+      <c r="K417" s="6"/>
+      <c r="L417" s="6"/>
+      <c r="M417" s="6"/>
+      <c r="N417" s="6"/>
+      <c r="O417" s="6"/>
+      <c r="P417" s="6"/>
+      <c r="Q417" s="6"/>
+    </row>
+    <row r="418">
+      <c r="E418" s="6"/>
+      <c r="F418" s="6"/>
+      <c r="G418" s="6"/>
+      <c r="H418" s="6"/>
+      <c r="I418" s="6"/>
+      <c r="J418" s="6"/>
+      <c r="K418" s="6"/>
+      <c r="L418" s="6"/>
+      <c r="M418" s="6"/>
+      <c r="N418" s="6"/>
+      <c r="O418" s="6"/>
+      <c r="P418" s="6"/>
+      <c r="Q418" s="6"/>
+    </row>
+    <row r="419">
+      <c r="E419" s="6"/>
+      <c r="F419" s="6"/>
+      <c r="G419" s="6"/>
+      <c r="H419" s="6"/>
+      <c r="I419" s="6"/>
+      <c r="J419" s="6"/>
+      <c r="K419" s="6"/>
+      <c r="L419" s="6"/>
+      <c r="M419" s="6"/>
+      <c r="N419" s="6"/>
+      <c r="O419" s="6"/>
+      <c r="P419" s="6"/>
+      <c r="Q419" s="6"/>
+    </row>
+    <row r="420">
+      <c r="E420" s="6"/>
+      <c r="F420" s="6"/>
+      <c r="G420" s="6"/>
+      <c r="H420" s="6"/>
+      <c r="I420" s="6"/>
+      <c r="J420" s="6"/>
+      <c r="K420" s="6"/>
+      <c r="L420" s="6"/>
+      <c r="M420" s="6"/>
+      <c r="N420" s="6"/>
+      <c r="O420" s="6"/>
+      <c r="P420" s="6"/>
+      <c r="Q420" s="6"/>
+    </row>
+    <row r="421">
+      <c r="E421" s="6"/>
+      <c r="F421" s="6"/>
+      <c r="G421" s="6"/>
+      <c r="H421" s="6"/>
+      <c r="I421" s="6"/>
+      <c r="J421" s="6"/>
+      <c r="K421" s="6"/>
+      <c r="L421" s="6"/>
+      <c r="M421" s="6"/>
+      <c r="N421" s="6"/>
+      <c r="O421" s="6"/>
+      <c r="P421" s="6"/>
+      <c r="Q421" s="6"/>
+    </row>
+    <row r="422">
+      <c r="E422" s="6"/>
+      <c r="F422" s="6"/>
+      <c r="G422" s="6"/>
+      <c r="H422" s="6"/>
+      <c r="I422" s="6"/>
+      <c r="J422" s="6"/>
+      <c r="K422" s="6"/>
+      <c r="L422" s="6"/>
+      <c r="M422" s="6"/>
+      <c r="N422" s="6"/>
+      <c r="O422" s="6"/>
+      <c r="P422" s="6"/>
+      <c r="Q422" s="6"/>
+    </row>
+    <row r="423">
+      <c r="E423" s="6"/>
+      <c r="F423" s="6"/>
+      <c r="G423" s="6"/>
+      <c r="H423" s="6"/>
+      <c r="I423" s="6"/>
+      <c r="J423" s="6"/>
+      <c r="K423" s="6"/>
+      <c r="L423" s="6"/>
+      <c r="M423" s="6"/>
+      <c r="N423" s="6"/>
+      <c r="O423" s="6"/>
+      <c r="P423" s="6"/>
+      <c r="Q423" s="6"/>
+    </row>
+    <row r="424">
+      <c r="E424" s="6"/>
+      <c r="F424" s="6"/>
+      <c r="G424" s="6"/>
+      <c r="H424" s="6"/>
+      <c r="I424" s="6"/>
+      <c r="J424" s="6"/>
+      <c r="K424" s="6"/>
+      <c r="L424" s="6"/>
+      <c r="M424" s="6"/>
+      <c r="N424" s="6"/>
+      <c r="O424" s="6"/>
+      <c r="P424" s="6"/>
+      <c r="Q424" s="6"/>
+    </row>
+    <row r="425">
+      <c r="E425" s="6"/>
+      <c r="F425" s="6"/>
+      <c r="G425" s="6"/>
+      <c r="H425" s="6"/>
+      <c r="I425" s="6"/>
+      <c r="J425" s="6"/>
+      <c r="K425" s="6"/>
+      <c r="L425" s="6"/>
+      <c r="M425" s="6"/>
+      <c r="N425" s="6"/>
+      <c r="O425" s="6"/>
+      <c r="P425" s="6"/>
+      <c r="Q425" s="6"/>
+    </row>
+    <row r="426">
+      <c r="E426" s="6"/>
+      <c r="F426" s="6"/>
+      <c r="G426" s="6"/>
+      <c r="H426" s="6"/>
+      <c r="I426" s="6"/>
+      <c r="J426" s="6"/>
+      <c r="K426" s="6"/>
+      <c r="L426" s="6"/>
+      <c r="M426" s="6"/>
+      <c r="N426" s="6"/>
+      <c r="O426" s="6"/>
+      <c r="P426" s="6"/>
+      <c r="Q426" s="6"/>
+    </row>
+    <row r="427">
+      <c r="E427" s="6"/>
+      <c r="F427" s="6"/>
+      <c r="G427" s="6"/>
+      <c r="H427" s="6"/>
+      <c r="I427" s="6"/>
+      <c r="J427" s="6"/>
+      <c r="K427" s="6"/>
+      <c r="L427" s="6"/>
+      <c r="M427" s="6"/>
+      <c r="N427" s="6"/>
+      <c r="O427" s="6"/>
+      <c r="P427" s="6"/>
+      <c r="Q427" s="6"/>
+    </row>
+    <row r="428">
+      <c r="E428" s="6"/>
+      <c r="F428" s="6"/>
+      <c r="G428" s="6"/>
+      <c r="H428" s="6"/>
+      <c r="I428" s="6"/>
+      <c r="J428" s="6"/>
+      <c r="K428" s="6"/>
+      <c r="L428" s="6"/>
+      <c r="M428" s="6"/>
+      <c r="N428" s="6"/>
+      <c r="O428" s="6"/>
+      <c r="P428" s="6"/>
+      <c r="Q428" s="6"/>
+    </row>
+    <row r="429">
+      <c r="E429" s="6"/>
+      <c r="F429" s="6"/>
+      <c r="G429" s="6"/>
+      <c r="H429" s="6"/>
+      <c r="I429" s="6"/>
+      <c r="J429" s="6"/>
+      <c r="K429" s="6"/>
+      <c r="L429" s="6"/>
+      <c r="M429" s="6"/>
+      <c r="N429" s="6"/>
+      <c r="O429" s="6"/>
+      <c r="P429" s="6"/>
+      <c r="Q429" s="6"/>
+    </row>
+    <row r="430">
+      <c r="E430" s="6"/>
+      <c r="F430" s="6"/>
+      <c r="G430" s="6"/>
+      <c r="H430" s="6"/>
+      <c r="I430" s="6"/>
+      <c r="J430" s="6"/>
+      <c r="K430" s="6"/>
+      <c r="L430" s="6"/>
+      <c r="M430" s="6"/>
+      <c r="N430" s="6"/>
+      <c r="O430" s="6"/>
+      <c r="P430" s="6"/>
+      <c r="Q430" s="6"/>
+    </row>
+    <row r="431">
+      <c r="E431" s="6"/>
+      <c r="F431" s="6"/>
+      <c r="G431" s="6"/>
+      <c r="H431" s="6"/>
+      <c r="I431" s="6"/>
+      <c r="J431" s="6"/>
+      <c r="K431" s="6"/>
+      <c r="L431" s="6"/>
+      <c r="M431" s="6"/>
+      <c r="N431" s="6"/>
+      <c r="O431" s="6"/>
+      <c r="P431" s="6"/>
+      <c r="Q431" s="6"/>
+    </row>
+    <row r="432">
+      <c r="E432" s="6"/>
+      <c r="F432" s="6"/>
+      <c r="G432" s="6"/>
+      <c r="H432" s="6"/>
+      <c r="I432" s="6"/>
+      <c r="J432" s="6"/>
+      <c r="K432" s="6"/>
+      <c r="L432" s="6"/>
+      <c r="M432" s="6"/>
+      <c r="N432" s="6"/>
+      <c r="O432" s="6"/>
+      <c r="P432" s="6"/>
+      <c r="Q432" s="6"/>
+    </row>
+    <row r="433">
+      <c r="E433" s="6"/>
+      <c r="F433" s="6"/>
+      <c r="G433" s="6"/>
+      <c r="H433" s="6"/>
+      <c r="I433" s="6"/>
+      <c r="J433" s="6"/>
+      <c r="K433" s="6"/>
+      <c r="L433" s="6"/>
+      <c r="M433" s="6"/>
+      <c r="N433" s="6"/>
+      <c r="O433" s="6"/>
+      <c r="P433" s="6"/>
+      <c r="Q433" s="6"/>
+    </row>
+    <row r="434">
+      <c r="E434" s="6"/>
+      <c r="F434" s="6"/>
+      <c r="G434" s="6"/>
+      <c r="H434" s="6"/>
+      <c r="I434" s="6"/>
+      <c r="J434" s="6"/>
+      <c r="K434" s="6"/>
+      <c r="L434" s="6"/>
+      <c r="M434" s="6"/>
+      <c r="N434" s="6"/>
+      <c r="O434" s="6"/>
+      <c r="P434" s="6"/>
+      <c r="Q434" s="6"/>
+    </row>
+    <row r="435">
+      <c r="E435" s="6"/>
+      <c r="F435" s="6"/>
+      <c r="G435" s="6"/>
+      <c r="H435" s="6"/>
+      <c r="I435" s="6"/>
+      <c r="J435" s="6"/>
+      <c r="K435" s="6"/>
+      <c r="L435" s="6"/>
+      <c r="M435" s="6"/>
+      <c r="N435" s="6"/>
+      <c r="O435" s="6"/>
+      <c r="P435" s="6"/>
+      <c r="Q435" s="6"/>
+    </row>
+    <row r="436">
+      <c r="E436" s="6"/>
+      <c r="F436" s="6"/>
+      <c r="G436" s="6"/>
+      <c r="H436" s="6"/>
+      <c r="I436" s="6"/>
+      <c r="J436" s="6"/>
+      <c r="K436" s="6"/>
+      <c r="L436" s="6"/>
+      <c r="M436" s="6"/>
+      <c r="N436" s="6"/>
+      <c r="O436" s="6"/>
+      <c r="P436" s="6"/>
+      <c r="Q436" s="6"/>
+    </row>
+    <row r="437">
+      <c r="E437" s="6"/>
+      <c r="F437" s="6"/>
+      <c r="G437" s="6"/>
+      <c r="H437" s="6"/>
+      <c r="I437" s="6"/>
+      <c r="J437" s="6"/>
+      <c r="K437" s="6"/>
+      <c r="L437" s="6"/>
+      <c r="M437" s="6"/>
+      <c r="N437" s="6"/>
+      <c r="O437" s="6"/>
+      <c r="P437" s="6"/>
+      <c r="Q437" s="6"/>
+    </row>
+    <row r="438">
+      <c r="E438" s="6"/>
+      <c r="F438" s="6"/>
+      <c r="G438" s="6"/>
+      <c r="H438" s="6"/>
+      <c r="I438" s="6"/>
+      <c r="J438" s="6"/>
+      <c r="K438" s="6"/>
+      <c r="L438" s="6"/>
+      <c r="M438" s="6"/>
+      <c r="N438" s="6"/>
+      <c r="O438" s="6"/>
+      <c r="P438" s="6"/>
+      <c r="Q438" s="6"/>
+    </row>
+    <row r="439">
+      <c r="E439" s="6"/>
+      <c r="F439" s="6"/>
+      <c r="G439" s="6"/>
+      <c r="H439" s="6"/>
+      <c r="I439" s="6"/>
+      <c r="J439" s="6"/>
+      <c r="K439" s="6"/>
+      <c r="L439" s="6"/>
+      <c r="M439" s="6"/>
+      <c r="N439" s="6"/>
+      <c r="O439" s="6"/>
+      <c r="P439" s="6"/>
+      <c r="Q439" s="6"/>
+    </row>
+    <row r="440">
+      <c r="E440" s="6"/>
+      <c r="F440" s="6"/>
+      <c r="G440" s="6"/>
+      <c r="H440" s="6"/>
+      <c r="I440" s="6"/>
+      <c r="J440" s="6"/>
+      <c r="K440" s="6"/>
+      <c r="L440" s="6"/>
+      <c r="M440" s="6"/>
+      <c r="N440" s="6"/>
+      <c r="O440" s="6"/>
+      <c r="P440" s="6"/>
+      <c r="Q440" s="6"/>
+    </row>
+    <row r="441">
+      <c r="E441" s="6"/>
+      <c r="F441" s="6"/>
+      <c r="G441" s="6"/>
+      <c r="H441" s="6"/>
+      <c r="I441" s="6"/>
+      <c r="J441" s="6"/>
+      <c r="K441" s="6"/>
+      <c r="L441" s="6"/>
+      <c r="M441" s="6"/>
+      <c r="N441" s="6"/>
+      <c r="O441" s="6"/>
+      <c r="P441" s="6"/>
+      <c r="Q441" s="6"/>
+    </row>
+    <row r="442">
+      <c r="E442" s="6"/>
+      <c r="F442" s="6"/>
+      <c r="G442" s="6"/>
+      <c r="H442" s="6"/>
+      <c r="I442" s="6"/>
+      <c r="J442" s="6"/>
+      <c r="K442" s="6"/>
+      <c r="L442" s="6"/>
+      <c r="M442" s="6"/>
+      <c r="N442" s="6"/>
+      <c r="O442" s="6"/>
+      <c r="P442" s="6"/>
+      <c r="Q442" s="6"/>
+    </row>
+    <row r="443">
+      <c r="E443" s="6"/>
+      <c r="F443" s="6"/>
+      <c r="G443" s="6"/>
+      <c r="H443" s="6"/>
+      <c r="I443" s="6"/>
+      <c r="J443" s="6"/>
+      <c r="K443" s="6"/>
+      <c r="L443" s="6"/>
+      <c r="M443" s="6"/>
+      <c r="N443" s="6"/>
+      <c r="O443" s="6"/>
+      <c r="P443" s="6"/>
+      <c r="Q443" s="6"/>
+    </row>
+    <row r="444">
+      <c r="E444" s="6"/>
+      <c r="F444" s="6"/>
+      <c r="G444" s="6"/>
+      <c r="H444" s="6"/>
+      <c r="I444" s="6"/>
+      <c r="J444" s="6"/>
+      <c r="K444" s="6"/>
+      <c r="L444" s="6"/>
+      <c r="M444" s="6"/>
+      <c r="N444" s="6"/>
+      <c r="O444" s="6"/>
+      <c r="P444" s="6"/>
+      <c r="Q444" s="6"/>
+    </row>
+    <row r="445">
+      <c r="E445" s="6"/>
+      <c r="F445" s="6"/>
+      <c r="G445" s="6"/>
+      <c r="H445" s="6"/>
+      <c r="I445" s="6"/>
+      <c r="J445" s="6"/>
+      <c r="K445" s="6"/>
+      <c r="L445" s="6"/>
+      <c r="M445" s="6"/>
+      <c r="N445" s="6"/>
+      <c r="O445" s="6"/>
+      <c r="P445" s="6"/>
+      <c r="Q445" s="6"/>
+    </row>
+    <row r="446">
+      <c r="E446" s="6"/>
+      <c r="F446" s="6"/>
+      <c r="G446" s="6"/>
+      <c r="H446" s="6"/>
+      <c r="I446" s="6"/>
+      <c r="J446" s="6"/>
+      <c r="K446" s="6"/>
+      <c r="L446" s="6"/>
+      <c r="M446" s="6"/>
+      <c r="N446" s="6"/>
+      <c r="O446" s="6"/>
+      <c r="P446" s="6"/>
+      <c r="Q446" s="6"/>
+    </row>
+    <row r="447">
+      <c r="E447" s="6"/>
+      <c r="F447" s="6"/>
+      <c r="G447" s="6"/>
+      <c r="H447" s="6"/>
+      <c r="I447" s="6"/>
+      <c r="J447" s="6"/>
+      <c r="K447" s="6"/>
+      <c r="L447" s="6"/>
+      <c r="M447" s="6"/>
+      <c r="N447" s="6"/>
+      <c r="O447" s="6"/>
+      <c r="P447" s="6"/>
+      <c r="Q447" s="6"/>
+    </row>
+    <row r="448">
+      <c r="E448" s="6"/>
+      <c r="F448" s="6"/>
+      <c r="G448" s="6"/>
+      <c r="H448" s="6"/>
+      <c r="I448" s="6"/>
+      <c r="J448" s="6"/>
+      <c r="K448" s="6"/>
+      <c r="L448" s="6"/>
+      <c r="M448" s="6"/>
+      <c r="N448" s="6"/>
+      <c r="O448" s="6"/>
+      <c r="P448" s="6"/>
+      <c r="Q448" s="6"/>
+    </row>
+    <row r="449">
+      <c r="E449" s="6"/>
+      <c r="F449" s="6"/>
+      <c r="G449" s="6"/>
+      <c r="H449" s="6"/>
+      <c r="I449" s="6"/>
+      <c r="J449" s="6"/>
+      <c r="K449" s="6"/>
+      <c r="L449" s="6"/>
+      <c r="M449" s="6"/>
+      <c r="N449" s="6"/>
+      <c r="O449" s="6"/>
+      <c r="P449" s="6"/>
+      <c r="Q449" s="6"/>
+    </row>
+    <row r="450">
+      <c r="E450" s="6"/>
+      <c r="F450" s="6"/>
+      <c r="G450" s="6"/>
+      <c r="H450" s="6"/>
+      <c r="I450" s="6"/>
+      <c r="J450" s="6"/>
+      <c r="K450" s="6"/>
+      <c r="L450" s="6"/>
+      <c r="M450" s="6"/>
+      <c r="N450" s="6"/>
+      <c r="O450" s="6"/>
+      <c r="P450" s="6"/>
+      <c r="Q450" s="6"/>
+    </row>
+    <row r="451">
+      <c r="E451" s="6"/>
+      <c r="F451" s="6"/>
+      <c r="G451" s="6"/>
+      <c r="H451" s="6"/>
+      <c r="I451" s="6"/>
+      <c r="J451" s="6"/>
+      <c r="K451" s="6"/>
+      <c r="L451" s="6"/>
+      <c r="M451" s="6"/>
+      <c r="N451" s="6"/>
+      <c r="O451" s="6"/>
+      <c r="P451" s="6"/>
+      <c r="Q451" s="6"/>
+    </row>
+    <row r="452">
+      <c r="E452" s="6"/>
+      <c r="F452" s="6"/>
+      <c r="G452" s="6"/>
+      <c r="H452" s="6"/>
+      <c r="I452" s="6"/>
+      <c r="J452" s="6"/>
+      <c r="K452" s="6"/>
+      <c r="L452" s="6"/>
+      <c r="M452" s="6"/>
+      <c r="N452" s="6"/>
+      <c r="O452" s="6"/>
+      <c r="P452" s="6"/>
+      <c r="Q452" s="6"/>
+    </row>
+    <row r="453">
+      <c r="E453" s="6"/>
+      <c r="F453" s="6"/>
+      <c r="G453" s="6"/>
+      <c r="H453" s="6"/>
+      <c r="I453" s="6"/>
+      <c r="J453" s="6"/>
+      <c r="K453" s="6"/>
+      <c r="L453" s="6"/>
+      <c r="M453" s="6"/>
+      <c r="N453" s="6"/>
+      <c r="O453" s="6"/>
+      <c r="P453" s="6"/>
+      <c r="Q453" s="6"/>
+    </row>
+    <row r="454">
+      <c r="E454" s="6"/>
+      <c r="F454" s="6"/>
+      <c r="G454" s="6"/>
+      <c r="H454" s="6"/>
+      <c r="I454" s="6"/>
+      <c r="J454" s="6"/>
+      <c r="K454" s="6"/>
+      <c r="L454" s="6"/>
+      <c r="M454" s="6"/>
+      <c r="N454" s="6"/>
+      <c r="O454" s="6"/>
+      <c r="P454" s="6"/>
+      <c r="Q454" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="K3:P3"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
